--- a/act_service/utils/output.xlsx
+++ b/act_service/utils/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Акт № 1 от 05 февраля 2025 г.</t>
   </si>
@@ -790,8 +790,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e80398cc-2216-4de7-86d1-1e150d1a6831}">
-  <dimension ref="A1:ZZ30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83190a36-e8a6-4ab8-91c7-ba694a89a28c}">
+  <dimension ref="A1:ZZ31"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -9288,119 +9288,127 @@
       <c r="ZZ12" s="30"/>
     </row>
     <row r="13" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A13" s="41" t="s">
-        <v>16</v>
+      <c r="A13" s="36">
+        <v>1</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-      <c r="AW13" s="41"/>
-      <c r="AX13" s="41"/>
-      <c r="AY13" s="41"/>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="41"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="41"/>
-      <c r="BE13" s="41"/>
-      <c r="BF13" s="41"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="41"/>
-      <c r="BI13" s="41"/>
-      <c r="BJ13" s="41"/>
-      <c r="BK13" s="41"/>
-      <c r="BL13" s="41"/>
-      <c r="BM13" s="41"/>
-      <c r="BN13" s="41"/>
-      <c r="BO13" s="41"/>
-      <c r="BP13" s="41"/>
-      <c r="BQ13" s="41"/>
-      <c r="BR13" s="41"/>
-      <c r="BS13" s="41"/>
-      <c r="BT13" s="41"/>
-      <c r="BU13" s="41"/>
-      <c r="BV13" s="41"/>
-      <c r="BW13" s="41"/>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="41"/>
-      <c r="BZ13" s="41"/>
-      <c r="CA13" s="41"/>
-      <c r="CB13" s="41"/>
-      <c r="CC13" s="41"/>
-      <c r="CD13" s="41"/>
-      <c r="CE13" s="41"/>
-      <c r="CF13" s="41"/>
-      <c r="CG13" s="41"/>
-      <c r="CH13" s="41"/>
-      <c r="CI13" s="41"/>
-      <c r="CJ13" s="41"/>
-      <c r="CK13" s="41"/>
-      <c r="CL13" s="41"/>
-      <c r="CM13" s="41"/>
-      <c r="CN13" s="41" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="36">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="35"/>
+      <c r="BD13" s="35"/>
+      <c r="BE13" s="35"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="35"/>
+      <c r="BH13" s="35"/>
+      <c r="BI13" s="35"/>
+      <c r="BJ13" s="35"/>
+      <c r="BK13" s="35"/>
+      <c r="BL13" s="35"/>
+      <c r="BM13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN13" s="35"/>
+      <c r="BO13" s="35"/>
+      <c r="BP13" s="35"/>
+      <c r="BQ13" s="35"/>
+      <c r="BR13" s="35"/>
+      <c r="BS13" s="35"/>
+      <c r="BT13" s="35"/>
+      <c r="BU13" s="35"/>
+      <c r="BV13" s="35"/>
+      <c r="BW13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="CO13" s="41"/>
-      <c r="CP13" s="41"/>
-      <c r="CQ13" s="41"/>
-      <c r="CR13" s="41"/>
-      <c r="CS13" s="41"/>
-      <c r="CT13" s="41"/>
-      <c r="CU13" s="41"/>
-      <c r="CV13" s="41"/>
-      <c r="CW13" s="41"/>
-      <c r="CX13" s="41"/>
-      <c r="CY13" s="41"/>
-      <c r="CZ13" s="41"/>
-      <c r="DA13" s="41"/>
-      <c r="DB13" s="41"/>
-      <c r="DC13" s="41"/>
-      <c r="DD13" s="41"/>
-      <c r="DE13" s="41"/>
+      <c r="BX13" s="40"/>
+      <c r="BY13" s="40"/>
+      <c r="BZ13" s="40"/>
+      <c r="CA13" s="40"/>
+      <c r="CB13" s="40"/>
+      <c r="CC13" s="40"/>
+      <c r="CD13" s="40"/>
+      <c r="CE13" s="40"/>
+      <c r="CF13" s="40"/>
+      <c r="CG13" s="40"/>
+      <c r="CH13" s="40"/>
+      <c r="CI13" s="40"/>
+      <c r="CJ13" s="40"/>
+      <c r="CK13" s="40"/>
+      <c r="CL13" s="40"/>
+      <c r="CM13" s="40"/>
+      <c r="CN13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO13" s="40"/>
+      <c r="CP13" s="40"/>
+      <c r="CQ13" s="40"/>
+      <c r="CR13" s="40"/>
+      <c r="CS13" s="40"/>
+      <c r="CT13" s="40"/>
+      <c r="CU13" s="40"/>
+      <c r="CV13" s="40"/>
+      <c r="CW13" s="40"/>
+      <c r="CX13" s="40"/>
+      <c r="CY13" s="40"/>
+      <c r="CZ13" s="40"/>
+      <c r="DA13" s="40"/>
+      <c r="DB13" s="40"/>
+      <c r="DC13" s="40"/>
+      <c r="DD13" s="40"/>
+      <c r="DE13" s="40"/>
       <c r="DG13" s="30"/>
       <c r="DH13" s="30"/>
       <c r="DI13" s="30"/>
@@ -9972,9 +9980,12 @@
       <c r="ZC13" s="30"/>
       <c r="ZD13" s="30"/>
       <c r="ZE13" s="30"/>
-      <c r="ZF13" s="30"/>
-      <c r="ZG13" s="30"/>
-      <c r="ZH13" s="30"/>
+      <c r="ZF13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="ZG13" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="ZI13" s="30"/>
       <c r="ZJ13" s="30"/>
       <c r="ZK13" s="30"/>
@@ -9995,117 +10006,119 @@
       <c r="ZZ13" s="30"/>
     </row>
     <row r="14" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>17</v>
+      <c r="A14" s="41" t="s">
+        <v>16</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="23"/>
-      <c r="AP14" s="23"/>
-      <c r="AQ14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="23"/>
-      <c r="BB14" s="23"/>
-      <c r="BC14" s="23"/>
-      <c r="BD14" s="23"/>
-      <c r="BE14" s="23"/>
-      <c r="BF14" s="23"/>
-      <c r="BG14" s="23"/>
-      <c r="BH14" s="23"/>
-      <c r="BI14" s="23"/>
-      <c r="BJ14" s="23"/>
-      <c r="BK14" s="23"/>
-      <c r="BL14" s="23"/>
-      <c r="BM14" s="23"/>
-      <c r="BN14" s="23"/>
-      <c r="BO14" s="23"/>
-      <c r="BP14" s="23"/>
-      <c r="BQ14" s="23"/>
-      <c r="BR14" s="23"/>
-      <c r="BS14" s="23"/>
-      <c r="BT14" s="23"/>
-      <c r="BU14" s="23"/>
-      <c r="BV14" s="23"/>
-      <c r="BW14" s="23"/>
-      <c r="BX14" s="23"/>
-      <c r="BY14" s="23"/>
-      <c r="BZ14" s="23"/>
-      <c r="CA14" s="23"/>
-      <c r="CB14" s="23"/>
-      <c r="CC14" s="23"/>
-      <c r="CD14" s="23"/>
-      <c r="CE14" s="23"/>
-      <c r="CF14" s="23"/>
-      <c r="CG14" s="23"/>
-      <c r="CH14" s="23"/>
-      <c r="CI14" s="23"/>
-      <c r="CJ14" s="23"/>
-      <c r="CK14" s="23"/>
-      <c r="CL14" s="23"/>
-      <c r="CM14" s="23"/>
-      <c r="CN14" s="23"/>
-      <c r="CO14" s="23"/>
-      <c r="CP14" s="23"/>
-      <c r="CQ14" s="23"/>
-      <c r="CR14" s="23"/>
-      <c r="CS14" s="23"/>
-      <c r="CT14" s="23"/>
-      <c r="CU14" s="23"/>
-      <c r="CV14" s="23"/>
-      <c r="CW14" s="23"/>
-      <c r="CX14" s="23"/>
-      <c r="CY14" s="23"/>
-      <c r="CZ14" s="23"/>
-      <c r="DA14" s="23"/>
-      <c r="DB14" s="23"/>
-      <c r="DC14" s="23"/>
-      <c r="DD14" s="23"/>
-      <c r="DE14" s="23"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="41"/>
+      <c r="AV14" s="41"/>
+      <c r="AW14" s="41"/>
+      <c r="AX14" s="41"/>
+      <c r="AY14" s="41"/>
+      <c r="AZ14" s="41"/>
+      <c r="BA14" s="41"/>
+      <c r="BB14" s="41"/>
+      <c r="BC14" s="41"/>
+      <c r="BD14" s="41"/>
+      <c r="BE14" s="41"/>
+      <c r="BF14" s="41"/>
+      <c r="BG14" s="41"/>
+      <c r="BH14" s="41"/>
+      <c r="BI14" s="41"/>
+      <c r="BJ14" s="41"/>
+      <c r="BK14" s="41"/>
+      <c r="BL14" s="41"/>
+      <c r="BM14" s="41"/>
+      <c r="BN14" s="41"/>
+      <c r="BO14" s="41"/>
+      <c r="BP14" s="41"/>
+      <c r="BQ14" s="41"/>
+      <c r="BR14" s="41"/>
+      <c r="BS14" s="41"/>
+      <c r="BT14" s="41"/>
+      <c r="BU14" s="41"/>
+      <c r="BV14" s="41"/>
+      <c r="BW14" s="41"/>
+      <c r="BX14" s="41"/>
+      <c r="BY14" s="41"/>
+      <c r="BZ14" s="41"/>
+      <c r="CA14" s="41"/>
+      <c r="CB14" s="41"/>
+      <c r="CC14" s="41"/>
+      <c r="CD14" s="41"/>
+      <c r="CE14" s="41"/>
+      <c r="CF14" s="41"/>
+      <c r="CG14" s="41"/>
+      <c r="CH14" s="41"/>
+      <c r="CI14" s="41"/>
+      <c r="CJ14" s="41"/>
+      <c r="CK14" s="41"/>
+      <c r="CL14" s="41"/>
+      <c r="CM14" s="41"/>
+      <c r="CN14" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO14" s="41"/>
+      <c r="CP14" s="41"/>
+      <c r="CQ14" s="41"/>
+      <c r="CR14" s="41"/>
+      <c r="CS14" s="41"/>
+      <c r="CT14" s="41"/>
+      <c r="CU14" s="41"/>
+      <c r="CV14" s="41"/>
+      <c r="CW14" s="41"/>
+      <c r="CX14" s="41"/>
+      <c r="CY14" s="41"/>
+      <c r="CZ14" s="41"/>
+      <c r="DA14" s="41"/>
+      <c r="DB14" s="41"/>
+      <c r="DC14" s="41"/>
+      <c r="DD14" s="41"/>
+      <c r="DE14" s="41"/>
       <c r="DG14" s="30"/>
       <c r="DH14" s="30"/>
       <c r="DI14" s="30"/>
@@ -10699,116 +10712,118 @@
       <c r="ZY14" s="30"/>
       <c r="ZZ14" s="30"/>
     </row>
-    <row r="15" spans="1:702" ht="4.5" customHeight="1">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="30"/>
-      <c r="AT15" s="30"/>
-      <c r="AU15" s="30"/>
-      <c r="AV15" s="30"/>
-      <c r="AW15" s="30"/>
-      <c r="AX15" s="30"/>
-      <c r="AY15" s="30"/>
-      <c r="AZ15" s="30"/>
-      <c r="BA15" s="30"/>
-      <c r="BB15" s="30"/>
-      <c r="BC15" s="30"/>
-      <c r="BD15" s="30"/>
-      <c r="BE15" s="30"/>
-      <c r="BF15" s="30"/>
-      <c r="BG15" s="30"/>
-      <c r="BH15" s="30"/>
-      <c r="BI15" s="30"/>
-      <c r="BJ15" s="30"/>
-      <c r="BK15" s="30"/>
-      <c r="BL15" s="30"/>
-      <c r="BM15" s="30"/>
-      <c r="BN15" s="30"/>
-      <c r="BO15" s="30"/>
-      <c r="BP15" s="30"/>
-      <c r="BQ15" s="30"/>
-      <c r="BR15" s="30"/>
-      <c r="BS15" s="30"/>
-      <c r="BT15" s="30"/>
-      <c r="BU15" s="30"/>
-      <c r="BV15" s="30"/>
-      <c r="BW15" s="30"/>
-      <c r="BX15" s="30"/>
-      <c r="BY15" s="30"/>
-      <c r="BZ15" s="30"/>
-      <c r="CA15" s="30"/>
-      <c r="CB15" s="30"/>
-      <c r="CC15" s="30"/>
-      <c r="CD15" s="30"/>
-      <c r="CE15" s="30"/>
-      <c r="CF15" s="30"/>
-      <c r="CG15" s="30"/>
-      <c r="CH15" s="30"/>
-      <c r="CI15" s="30"/>
-      <c r="CJ15" s="30"/>
-      <c r="CK15" s="30"/>
-      <c r="CL15" s="30"/>
-      <c r="CM15" s="30"/>
-      <c r="CN15" s="30"/>
-      <c r="CO15" s="30"/>
-      <c r="CP15" s="30"/>
-      <c r="CQ15" s="30"/>
-      <c r="CR15" s="30"/>
-      <c r="CS15" s="30"/>
-      <c r="CT15" s="30"/>
-      <c r="CU15" s="30"/>
-      <c r="CV15" s="30"/>
-      <c r="CW15" s="30"/>
-      <c r="CX15" s="30"/>
-      <c r="CY15" s="30"/>
-      <c r="CZ15" s="30"/>
-      <c r="DA15" s="30"/>
-      <c r="DB15" s="30"/>
-      <c r="DC15" s="30"/>
-      <c r="DD15" s="30"/>
-      <c r="DE15" s="30"/>
-      <c r="DF15" s="30"/>
+    <row r="15" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="23"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="23"/>
+      <c r="AU15" s="23"/>
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="23"/>
+      <c r="AZ15" s="23"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="23"/>
+      <c r="BD15" s="23"/>
+      <c r="BE15" s="23"/>
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="23"/>
+      <c r="BH15" s="23"/>
+      <c r="BI15" s="23"/>
+      <c r="BJ15" s="23"/>
+      <c r="BK15" s="23"/>
+      <c r="BL15" s="23"/>
+      <c r="BM15" s="23"/>
+      <c r="BN15" s="23"/>
+      <c r="BO15" s="23"/>
+      <c r="BP15" s="23"/>
+      <c r="BQ15" s="23"/>
+      <c r="BR15" s="23"/>
+      <c r="BS15" s="23"/>
+      <c r="BT15" s="23"/>
+      <c r="BU15" s="23"/>
+      <c r="BV15" s="23"/>
+      <c r="BW15" s="23"/>
+      <c r="BX15" s="23"/>
+      <c r="BY15" s="23"/>
+      <c r="BZ15" s="23"/>
+      <c r="CA15" s="23"/>
+      <c r="CB15" s="23"/>
+      <c r="CC15" s="23"/>
+      <c r="CD15" s="23"/>
+      <c r="CE15" s="23"/>
+      <c r="CF15" s="23"/>
+      <c r="CG15" s="23"/>
+      <c r="CH15" s="23"/>
+      <c r="CI15" s="23"/>
+      <c r="CJ15" s="23"/>
+      <c r="CK15" s="23"/>
+      <c r="CL15" s="23"/>
+      <c r="CM15" s="23"/>
+      <c r="CN15" s="23"/>
+      <c r="CO15" s="23"/>
+      <c r="CP15" s="23"/>
+      <c r="CQ15" s="23"/>
+      <c r="CR15" s="23"/>
+      <c r="CS15" s="23"/>
+      <c r="CT15" s="23"/>
+      <c r="CU15" s="23"/>
+      <c r="CV15" s="23"/>
+      <c r="CW15" s="23"/>
+      <c r="CX15" s="23"/>
+      <c r="CY15" s="23"/>
+      <c r="CZ15" s="23"/>
+      <c r="DA15" s="23"/>
+      <c r="DB15" s="23"/>
+      <c r="DC15" s="23"/>
+      <c r="DD15" s="23"/>
+      <c r="DE15" s="23"/>
       <c r="DG15" s="30"/>
       <c r="DH15" s="30"/>
       <c r="DI15" s="30"/>
@@ -11402,118 +11417,116 @@
       <c r="ZY15" s="30"/>
       <c r="ZZ15" s="30"/>
     </row>
-    <row r="16" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
-      <c r="BN16" s="1"/>
-      <c r="BO16" s="1"/>
-      <c r="BP16" s="1"/>
-      <c r="BQ16" s="1"/>
-      <c r="BR16" s="1"/>
-      <c r="BS16" s="1"/>
-      <c r="BT16" s="1"/>
-      <c r="BU16" s="1"/>
-      <c r="BV16" s="1"/>
-      <c r="BW16" s="1"/>
-      <c r="BX16" s="1"/>
-      <c r="BY16" s="1"/>
-      <c r="BZ16" s="1"/>
-      <c r="CA16" s="1"/>
-      <c r="CB16" s="1"/>
-      <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
-      <c r="CF16" s="1"/>
-      <c r="CG16" s="1"/>
-      <c r="CH16" s="1"/>
-      <c r="CI16" s="1"/>
-      <c r="CJ16" s="1"/>
-      <c r="CK16" s="1"/>
-      <c r="CL16" s="1"/>
-      <c r="CM16" s="1"/>
-      <c r="CN16" s="1"/>
-      <c r="CO16" s="1"/>
-      <c r="CP16" s="1"/>
-      <c r="CQ16" s="1"/>
-      <c r="CR16" s="1"/>
-      <c r="CS16" s="1"/>
-      <c r="CT16" s="1"/>
-      <c r="CU16" s="1"/>
-      <c r="CV16" s="1"/>
-      <c r="CW16" s="1"/>
-      <c r="CX16" s="1"/>
-      <c r="CY16" s="1"/>
-      <c r="CZ16" s="1"/>
-      <c r="DA16" s="1"/>
-      <c r="DB16" s="1"/>
-      <c r="DC16" s="1"/>
-      <c r="DD16" s="1"/>
-      <c r="DE16" s="1"/>
+    <row r="16" spans="1:702" ht="4.5" customHeight="1">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="30"/>
+      <c r="BC16" s="30"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="30"/>
+      <c r="BF16" s="30"/>
+      <c r="BG16" s="30"/>
+      <c r="BH16" s="30"/>
+      <c r="BI16" s="30"/>
+      <c r="BJ16" s="30"/>
+      <c r="BK16" s="30"/>
+      <c r="BL16" s="30"/>
+      <c r="BM16" s="30"/>
+      <c r="BN16" s="30"/>
+      <c r="BO16" s="30"/>
+      <c r="BP16" s="30"/>
+      <c r="BQ16" s="30"/>
+      <c r="BR16" s="30"/>
+      <c r="BS16" s="30"/>
+      <c r="BT16" s="30"/>
+      <c r="BU16" s="30"/>
+      <c r="BV16" s="30"/>
+      <c r="BW16" s="30"/>
+      <c r="BX16" s="30"/>
+      <c r="BY16" s="30"/>
+      <c r="BZ16" s="30"/>
+      <c r="CA16" s="30"/>
+      <c r="CB16" s="30"/>
+      <c r="CC16" s="30"/>
+      <c r="CD16" s="30"/>
+      <c r="CE16" s="30"/>
+      <c r="CF16" s="30"/>
+      <c r="CG16" s="30"/>
+      <c r="CH16" s="30"/>
+      <c r="CI16" s="30"/>
+      <c r="CJ16" s="30"/>
+      <c r="CK16" s="30"/>
+      <c r="CL16" s="30"/>
+      <c r="CM16" s="30"/>
+      <c r="CN16" s="30"/>
+      <c r="CO16" s="30"/>
+      <c r="CP16" s="30"/>
+      <c r="CQ16" s="30"/>
+      <c r="CR16" s="30"/>
+      <c r="CS16" s="30"/>
+      <c r="CT16" s="30"/>
+      <c r="CU16" s="30"/>
+      <c r="CV16" s="30"/>
+      <c r="CW16" s="30"/>
+      <c r="CX16" s="30"/>
+      <c r="CY16" s="30"/>
+      <c r="CZ16" s="30"/>
+      <c r="DA16" s="30"/>
+      <c r="DB16" s="30"/>
+      <c r="DC16" s="30"/>
+      <c r="DD16" s="30"/>
+      <c r="DE16" s="30"/>
+      <c r="DF16" s="30"/>
       <c r="DG16" s="30"/>
       <c r="DH16" s="30"/>
       <c r="DI16" s="30"/>
@@ -12107,116 +12120,118 @@
       <c r="ZY16" s="30"/>
       <c r="ZZ16" s="30"/>
     </row>
-    <row r="17" spans="1:702" ht="1.5" customHeight="1">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="30"/>
-      <c r="AT17" s="30"/>
-      <c r="AU17" s="30"/>
-      <c r="AV17" s="30"/>
-      <c r="AW17" s="30"/>
-      <c r="AX17" s="30"/>
-      <c r="AY17" s="30"/>
-      <c r="AZ17" s="30"/>
-      <c r="BA17" s="30"/>
-      <c r="BB17" s="30"/>
-      <c r="BC17" s="30"/>
-      <c r="BD17" s="30"/>
-      <c r="BE17" s="30"/>
-      <c r="BF17" s="30"/>
-      <c r="BG17" s="30"/>
-      <c r="BH17" s="30"/>
-      <c r="BI17" s="30"/>
-      <c r="BJ17" s="30"/>
-      <c r="BK17" s="30"/>
-      <c r="BL17" s="30"/>
-      <c r="BM17" s="30"/>
-      <c r="BN17" s="30"/>
-      <c r="BO17" s="30"/>
-      <c r="BP17" s="30"/>
-      <c r="BQ17" s="30"/>
-      <c r="BR17" s="30"/>
-      <c r="BS17" s="30"/>
-      <c r="BT17" s="30"/>
-      <c r="BU17" s="30"/>
-      <c r="BV17" s="30"/>
-      <c r="BW17" s="30"/>
-      <c r="BX17" s="30"/>
-      <c r="BY17" s="30"/>
-      <c r="BZ17" s="30"/>
-      <c r="CA17" s="30"/>
-      <c r="CB17" s="30"/>
-      <c r="CC17" s="30"/>
-      <c r="CD17" s="30"/>
-      <c r="CE17" s="30"/>
-      <c r="CF17" s="30"/>
-      <c r="CG17" s="30"/>
-      <c r="CH17" s="30"/>
-      <c r="CI17" s="30"/>
-      <c r="CJ17" s="30"/>
-      <c r="CK17" s="30"/>
-      <c r="CL17" s="30"/>
-      <c r="CM17" s="30"/>
-      <c r="CN17" s="30"/>
-      <c r="CO17" s="30"/>
-      <c r="CP17" s="30"/>
-      <c r="CQ17" s="30"/>
-      <c r="CR17" s="30"/>
-      <c r="CS17" s="30"/>
-      <c r="CT17" s="30"/>
-      <c r="CU17" s="30"/>
-      <c r="CV17" s="30"/>
-      <c r="CW17" s="30"/>
-      <c r="CX17" s="30"/>
-      <c r="CY17" s="30"/>
-      <c r="CZ17" s="30"/>
-      <c r="DA17" s="30"/>
-      <c r="DB17" s="30"/>
-      <c r="DC17" s="30"/>
-      <c r="DD17" s="30"/>
-      <c r="DE17" s="30"/>
-      <c r="DF17" s="30"/>
+    <row r="17" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="1"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
+      <c r="CW17" s="1"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1"/>
+      <c r="CZ17" s="1"/>
+      <c r="DA17" s="1"/>
+      <c r="DB17" s="1"/>
+      <c r="DC17" s="1"/>
+      <c r="DD17" s="1"/>
+      <c r="DE17" s="1"/>
       <c r="DG17" s="30"/>
       <c r="DH17" s="30"/>
       <c r="DI17" s="30"/>
@@ -12810,118 +12825,116 @@
       <c r="ZY17" s="30"/>
       <c r="ZZ17" s="30"/>
     </row>
-    <row r="18" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="24"/>
-      <c r="AT18" s="24"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="24"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
-      <c r="BF18" s="24"/>
-      <c r="BG18" s="24"/>
-      <c r="BH18" s="24"/>
-      <c r="BI18" s="24"/>
-      <c r="BJ18" s="24"/>
-      <c r="BK18" s="24"/>
-      <c r="BL18" s="24"/>
-      <c r="BM18" s="24"/>
-      <c r="BN18" s="24"/>
-      <c r="BO18" s="24"/>
-      <c r="BP18" s="24"/>
-      <c r="BQ18" s="24"/>
-      <c r="BR18" s="24"/>
-      <c r="BS18" s="24"/>
-      <c r="BT18" s="24"/>
-      <c r="BU18" s="24"/>
-      <c r="BV18" s="24"/>
-      <c r="BW18" s="24"/>
-      <c r="BX18" s="24"/>
-      <c r="BY18" s="24"/>
-      <c r="BZ18" s="24"/>
-      <c r="CA18" s="24"/>
-      <c r="CB18" s="24"/>
-      <c r="CC18" s="24"/>
-      <c r="CD18" s="24"/>
-      <c r="CE18" s="24"/>
-      <c r="CF18" s="24"/>
-      <c r="CG18" s="24"/>
-      <c r="CH18" s="24"/>
-      <c r="CI18" s="24"/>
-      <c r="CJ18" s="24"/>
-      <c r="CK18" s="24"/>
-      <c r="CL18" s="24"/>
-      <c r="CM18" s="24"/>
-      <c r="CN18" s="24"/>
-      <c r="CO18" s="24"/>
-      <c r="CP18" s="24"/>
-      <c r="CQ18" s="24"/>
-      <c r="CR18" s="24"/>
-      <c r="CS18" s="24"/>
-      <c r="CT18" s="24"/>
-      <c r="CU18" s="24"/>
-      <c r="CV18" s="24"/>
-      <c r="CW18" s="24"/>
-      <c r="CX18" s="24"/>
-      <c r="CY18" s="24"/>
-      <c r="CZ18" s="24"/>
-      <c r="DA18" s="24"/>
-      <c r="DB18" s="24"/>
-      <c r="DC18" s="24"/>
-      <c r="DD18" s="24"/>
-      <c r="DE18" s="24"/>
+    <row r="18" spans="1:702" ht="1.5" customHeight="1">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30"/>
+      <c r="AS18" s="30"/>
+      <c r="AT18" s="30"/>
+      <c r="AU18" s="30"/>
+      <c r="AV18" s="30"/>
+      <c r="AW18" s="30"/>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="30"/>
+      <c r="AZ18" s="30"/>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="30"/>
+      <c r="BC18" s="30"/>
+      <c r="BD18" s="30"/>
+      <c r="BE18" s="30"/>
+      <c r="BF18" s="30"/>
+      <c r="BG18" s="30"/>
+      <c r="BH18" s="30"/>
+      <c r="BI18" s="30"/>
+      <c r="BJ18" s="30"/>
+      <c r="BK18" s="30"/>
+      <c r="BL18" s="30"/>
+      <c r="BM18" s="30"/>
+      <c r="BN18" s="30"/>
+      <c r="BO18" s="30"/>
+      <c r="BP18" s="30"/>
+      <c r="BQ18" s="30"/>
+      <c r="BR18" s="30"/>
+      <c r="BS18" s="30"/>
+      <c r="BT18" s="30"/>
+      <c r="BU18" s="30"/>
+      <c r="BV18" s="30"/>
+      <c r="BW18" s="30"/>
+      <c r="BX18" s="30"/>
+      <c r="BY18" s="30"/>
+      <c r="BZ18" s="30"/>
+      <c r="CA18" s="30"/>
+      <c r="CB18" s="30"/>
+      <c r="CC18" s="30"/>
+      <c r="CD18" s="30"/>
+      <c r="CE18" s="30"/>
+      <c r="CF18" s="30"/>
+      <c r="CG18" s="30"/>
+      <c r="CH18" s="30"/>
+      <c r="CI18" s="30"/>
+      <c r="CJ18" s="30"/>
+      <c r="CK18" s="30"/>
+      <c r="CL18" s="30"/>
+      <c r="CM18" s="30"/>
+      <c r="CN18" s="30"/>
+      <c r="CO18" s="30"/>
+      <c r="CP18" s="30"/>
+      <c r="CQ18" s="30"/>
+      <c r="CR18" s="30"/>
+      <c r="CS18" s="30"/>
+      <c r="CT18" s="30"/>
+      <c r="CU18" s="30"/>
+      <c r="CV18" s="30"/>
+      <c r="CW18" s="30"/>
+      <c r="CX18" s="30"/>
+      <c r="CY18" s="30"/>
+      <c r="CZ18" s="30"/>
+      <c r="DA18" s="30"/>
+      <c r="DB18" s="30"/>
+      <c r="DC18" s="30"/>
+      <c r="DD18" s="30"/>
+      <c r="DE18" s="30"/>
+      <c r="DF18" s="30"/>
       <c r="DG18" s="30"/>
       <c r="DH18" s="30"/>
       <c r="DI18" s="30"/>
@@ -13513,120 +13526,120 @@
       <c r="ZW18" s="30"/>
       <c r="ZX18" s="30"/>
       <c r="ZY18" s="30"/>
-      <c r="ZZ18" s="15" t="s">
+      <c r="ZZ18" s="30"/>
+    </row>
+    <row r="19" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A19" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:702" ht="6" customHeight="1">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
-      <c r="AU19" s="30"/>
-      <c r="AV19" s="30"/>
-      <c r="AW19" s="30"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="30"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="30"/>
-      <c r="BC19" s="30"/>
-      <c r="BD19" s="30"/>
-      <c r="BE19" s="30"/>
-      <c r="BF19" s="30"/>
-      <c r="BG19" s="30"/>
-      <c r="BH19" s="30"/>
-      <c r="BI19" s="30"/>
-      <c r="BJ19" s="30"/>
-      <c r="BK19" s="30"/>
-      <c r="BL19" s="30"/>
-      <c r="BM19" s="30"/>
-      <c r="BN19" s="30"/>
-      <c r="BO19" s="30"/>
-      <c r="BP19" s="30"/>
-      <c r="BQ19" s="30"/>
-      <c r="BR19" s="30"/>
-      <c r="BS19" s="30"/>
-      <c r="BT19" s="30"/>
-      <c r="BU19" s="30"/>
-      <c r="BV19" s="30"/>
-      <c r="BW19" s="30"/>
-      <c r="BX19" s="30"/>
-      <c r="BY19" s="30"/>
-      <c r="BZ19" s="30"/>
-      <c r="CA19" s="30"/>
-      <c r="CB19" s="30"/>
-      <c r="CC19" s="30"/>
-      <c r="CD19" s="30"/>
-      <c r="CE19" s="30"/>
-      <c r="CF19" s="30"/>
-      <c r="CG19" s="30"/>
-      <c r="CH19" s="30"/>
-      <c r="CI19" s="30"/>
-      <c r="CJ19" s="30"/>
-      <c r="CK19" s="30"/>
-      <c r="CL19" s="30"/>
-      <c r="CM19" s="30"/>
-      <c r="CN19" s="30"/>
-      <c r="CO19" s="30"/>
-      <c r="CP19" s="30"/>
-      <c r="CQ19" s="30"/>
-      <c r="CR19" s="30"/>
-      <c r="CS19" s="30"/>
-      <c r="CT19" s="30"/>
-      <c r="CU19" s="30"/>
-      <c r="CV19" s="30"/>
-      <c r="CW19" s="30"/>
-      <c r="CX19" s="30"/>
-      <c r="CY19" s="30"/>
-      <c r="CZ19" s="30"/>
-      <c r="DA19" s="30"/>
-      <c r="DB19" s="30"/>
-      <c r="DC19" s="30"/>
-      <c r="DD19" s="30"/>
-      <c r="DE19" s="30"/>
-      <c r="DF19" s="30"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
+      <c r="BC19" s="24"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="24"/>
+      <c r="BJ19" s="24"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="24"/>
+      <c r="BO19" s="24"/>
+      <c r="BP19" s="24"/>
+      <c r="BQ19" s="24"/>
+      <c r="BR19" s="24"/>
+      <c r="BS19" s="24"/>
+      <c r="BT19" s="24"/>
+      <c r="BU19" s="24"/>
+      <c r="BV19" s="24"/>
+      <c r="BW19" s="24"/>
+      <c r="BX19" s="24"/>
+      <c r="BY19" s="24"/>
+      <c r="BZ19" s="24"/>
+      <c r="CA19" s="24"/>
+      <c r="CB19" s="24"/>
+      <c r="CC19" s="24"/>
+      <c r="CD19" s="24"/>
+      <c r="CE19" s="24"/>
+      <c r="CF19" s="24"/>
+      <c r="CG19" s="24"/>
+      <c r="CH19" s="24"/>
+      <c r="CI19" s="24"/>
+      <c r="CJ19" s="24"/>
+      <c r="CK19" s="24"/>
+      <c r="CL19" s="24"/>
+      <c r="CM19" s="24"/>
+      <c r="CN19" s="24"/>
+      <c r="CO19" s="24"/>
+      <c r="CP19" s="24"/>
+      <c r="CQ19" s="24"/>
+      <c r="CR19" s="24"/>
+      <c r="CS19" s="24"/>
+      <c r="CT19" s="24"/>
+      <c r="CU19" s="24"/>
+      <c r="CV19" s="24"/>
+      <c r="CW19" s="24"/>
+      <c r="CX19" s="24"/>
+      <c r="CY19" s="24"/>
+      <c r="CZ19" s="24"/>
+      <c r="DA19" s="24"/>
+      <c r="DB19" s="24"/>
+      <c r="DC19" s="24"/>
+      <c r="DD19" s="24"/>
+      <c r="DE19" s="24"/>
       <c r="DG19" s="30"/>
       <c r="DH19" s="30"/>
       <c r="DI19" s="30"/>
@@ -14218,9 +14231,11 @@
       <c r="ZW19" s="30"/>
       <c r="ZX19" s="30"/>
       <c r="ZY19" s="30"/>
-      <c r="ZZ19" s="30"/>
+      <c r="ZZ19" s="15" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="20" spans="1:702" ht="9.75" customHeight="1">
+    <row r="20" spans="1:702" ht="6" customHeight="1">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -14923,119 +14938,116 @@
       <c r="ZY20" s="30"/>
       <c r="ZZ20" s="30"/>
     </row>
-    <row r="21" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="24"/>
-      <c r="AV21" s="24"/>
-      <c r="AW21" s="24"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
+    <row r="21" spans="1:702" ht="9.75" customHeight="1">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="30"/>
+      <c r="AU21" s="30"/>
+      <c r="AV21" s="30"/>
+      <c r="AW21" s="30"/>
+      <c r="AX21" s="30"/>
+      <c r="AY21" s="30"/>
+      <c r="AZ21" s="30"/>
+      <c r="BA21" s="30"/>
       <c r="BB21" s="30"/>
       <c r="BC21" s="30"/>
-      <c r="BD21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="24"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="24"/>
-      <c r="BI21" s="24"/>
-      <c r="BJ21" s="24"/>
-      <c r="BK21" s="24"/>
-      <c r="BL21" s="24"/>
-      <c r="BM21" s="24"/>
-      <c r="BN21" s="24"/>
-      <c r="BO21" s="24"/>
-      <c r="BP21" s="24"/>
-      <c r="BQ21" s="24"/>
-      <c r="BR21" s="24"/>
-      <c r="BS21" s="24"/>
-      <c r="BT21" s="24"/>
-      <c r="BU21" s="24"/>
-      <c r="BV21" s="24"/>
-      <c r="BW21" s="24"/>
-      <c r="BX21" s="24"/>
-      <c r="BY21" s="24"/>
-      <c r="BZ21" s="24"/>
-      <c r="CA21" s="24"/>
-      <c r="CB21" s="24"/>
-      <c r="CC21" s="24"/>
-      <c r="CD21" s="24"/>
-      <c r="CE21" s="24"/>
-      <c r="CF21" s="24"/>
-      <c r="CG21" s="24"/>
-      <c r="CH21" s="24"/>
-      <c r="CI21" s="24"/>
-      <c r="CJ21" s="24"/>
-      <c r="CK21" s="24"/>
-      <c r="CL21" s="24"/>
-      <c r="CM21" s="24"/>
-      <c r="CN21" s="24"/>
-      <c r="CO21" s="24"/>
-      <c r="CP21" s="24"/>
-      <c r="CQ21" s="24"/>
-      <c r="CR21" s="24"/>
-      <c r="CS21" s="24"/>
-      <c r="CT21" s="24"/>
-      <c r="CU21" s="24"/>
-      <c r="CV21" s="24"/>
-      <c r="CW21" s="24"/>
-      <c r="CX21" s="24"/>
-      <c r="CY21" s="24"/>
-      <c r="CZ21" s="24"/>
-      <c r="DA21" s="24"/>
-      <c r="DB21" s="24"/>
-      <c r="DC21" s="24"/>
-      <c r="DD21" s="24"/>
-      <c r="DE21" s="24"/>
+      <c r="BD21" s="30"/>
+      <c r="BE21" s="30"/>
+      <c r="BF21" s="30"/>
+      <c r="BG21" s="30"/>
+      <c r="BH21" s="30"/>
+      <c r="BI21" s="30"/>
+      <c r="BJ21" s="30"/>
+      <c r="BK21" s="30"/>
+      <c r="BL21" s="30"/>
+      <c r="BM21" s="30"/>
+      <c r="BN21" s="30"/>
+      <c r="BO21" s="30"/>
+      <c r="BP21" s="30"/>
+      <c r="BQ21" s="30"/>
+      <c r="BR21" s="30"/>
+      <c r="BS21" s="30"/>
+      <c r="BT21" s="30"/>
+      <c r="BU21" s="30"/>
+      <c r="BV21" s="30"/>
+      <c r="BW21" s="30"/>
+      <c r="BX21" s="30"/>
+      <c r="BY21" s="30"/>
+      <c r="BZ21" s="30"/>
+      <c r="CA21" s="30"/>
+      <c r="CB21" s="30"/>
+      <c r="CC21" s="30"/>
+      <c r="CD21" s="30"/>
+      <c r="CE21" s="30"/>
+      <c r="CF21" s="30"/>
+      <c r="CG21" s="30"/>
+      <c r="CH21" s="30"/>
+      <c r="CI21" s="30"/>
+      <c r="CJ21" s="30"/>
+      <c r="CK21" s="30"/>
+      <c r="CL21" s="30"/>
+      <c r="CM21" s="30"/>
+      <c r="CN21" s="30"/>
+      <c r="CO21" s="30"/>
+      <c r="CP21" s="30"/>
+      <c r="CQ21" s="30"/>
+      <c r="CR21" s="30"/>
+      <c r="CS21" s="30"/>
+      <c r="CT21" s="30"/>
+      <c r="CU21" s="30"/>
+      <c r="CV21" s="30"/>
+      <c r="CW21" s="30"/>
+      <c r="CX21" s="30"/>
+      <c r="CY21" s="30"/>
+      <c r="CZ21" s="30"/>
+      <c r="DA21" s="30"/>
+      <c r="DB21" s="30"/>
+      <c r="DC21" s="30"/>
+      <c r="DD21" s="30"/>
+      <c r="DE21" s="30"/>
+      <c r="DF21" s="30"/>
       <c r="DG21" s="30"/>
       <c r="DH21" s="30"/>
       <c r="DI21" s="30"/>
@@ -15629,116 +15641,119 @@
       <c r="ZY21" s="30"/>
       <c r="ZZ21" s="30"/>
     </row>
-    <row r="22" spans="1:702" ht="6" customHeight="1">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
-      <c r="AU22" s="30"/>
-      <c r="AV22" s="30"/>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="30"/>
-      <c r="AZ22" s="30"/>
-      <c r="BA22" s="30"/>
+    <row r="22" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
       <c r="BB22" s="30"/>
       <c r="BC22" s="30"/>
-      <c r="BD22" s="30"/>
-      <c r="BE22" s="30"/>
-      <c r="BF22" s="30"/>
-      <c r="BG22" s="30"/>
-      <c r="BH22" s="30"/>
-      <c r="BI22" s="30"/>
-      <c r="BJ22" s="30"/>
-      <c r="BK22" s="30"/>
-      <c r="BL22" s="30"/>
-      <c r="BM22" s="30"/>
-      <c r="BN22" s="30"/>
-      <c r="BO22" s="30"/>
-      <c r="BP22" s="30"/>
-      <c r="BQ22" s="30"/>
-      <c r="BR22" s="30"/>
-      <c r="BS22" s="30"/>
-      <c r="BT22" s="30"/>
-      <c r="BU22" s="30"/>
-      <c r="BV22" s="30"/>
-      <c r="BW22" s="30"/>
-      <c r="BX22" s="30"/>
-      <c r="BY22" s="30"/>
-      <c r="BZ22" s="30"/>
-      <c r="CA22" s="30"/>
-      <c r="CB22" s="30"/>
-      <c r="CC22" s="30"/>
-      <c r="CD22" s="30"/>
-      <c r="CE22" s="30"/>
-      <c r="CF22" s="30"/>
-      <c r="CG22" s="30"/>
-      <c r="CH22" s="30"/>
-      <c r="CI22" s="30"/>
-      <c r="CJ22" s="30"/>
-      <c r="CK22" s="30"/>
-      <c r="CL22" s="30"/>
-      <c r="CM22" s="30"/>
-      <c r="CN22" s="30"/>
-      <c r="CO22" s="30"/>
-      <c r="CP22" s="30"/>
-      <c r="CQ22" s="30"/>
-      <c r="CR22" s="30"/>
-      <c r="CS22" s="30"/>
-      <c r="CT22" s="30"/>
-      <c r="CU22" s="30"/>
-      <c r="CV22" s="30"/>
-      <c r="CW22" s="30"/>
-      <c r="CX22" s="30"/>
-      <c r="CY22" s="30"/>
-      <c r="CZ22" s="30"/>
-      <c r="DA22" s="30"/>
-      <c r="DB22" s="30"/>
-      <c r="DC22" s="30"/>
-      <c r="DD22" s="30"/>
-      <c r="DE22" s="30"/>
-      <c r="DF22" s="30"/>
+      <c r="BD22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE22" s="24"/>
+      <c r="BF22" s="24"/>
+      <c r="BG22" s="24"/>
+      <c r="BH22" s="24"/>
+      <c r="BI22" s="24"/>
+      <c r="BJ22" s="24"/>
+      <c r="BK22" s="24"/>
+      <c r="BL22" s="24"/>
+      <c r="BM22" s="24"/>
+      <c r="BN22" s="24"/>
+      <c r="BO22" s="24"/>
+      <c r="BP22" s="24"/>
+      <c r="BQ22" s="24"/>
+      <c r="BR22" s="24"/>
+      <c r="BS22" s="24"/>
+      <c r="BT22" s="24"/>
+      <c r="BU22" s="24"/>
+      <c r="BV22" s="24"/>
+      <c r="BW22" s="24"/>
+      <c r="BX22" s="24"/>
+      <c r="BY22" s="24"/>
+      <c r="BZ22" s="24"/>
+      <c r="CA22" s="24"/>
+      <c r="CB22" s="24"/>
+      <c r="CC22" s="24"/>
+      <c r="CD22" s="24"/>
+      <c r="CE22" s="24"/>
+      <c r="CF22" s="24"/>
+      <c r="CG22" s="24"/>
+      <c r="CH22" s="24"/>
+      <c r="CI22" s="24"/>
+      <c r="CJ22" s="24"/>
+      <c r="CK22" s="24"/>
+      <c r="CL22" s="24"/>
+      <c r="CM22" s="24"/>
+      <c r="CN22" s="24"/>
+      <c r="CO22" s="24"/>
+      <c r="CP22" s="24"/>
+      <c r="CQ22" s="24"/>
+      <c r="CR22" s="24"/>
+      <c r="CS22" s="24"/>
+      <c r="CT22" s="24"/>
+      <c r="CU22" s="24"/>
+      <c r="CV22" s="24"/>
+      <c r="CW22" s="24"/>
+      <c r="CX22" s="24"/>
+      <c r="CY22" s="24"/>
+      <c r="CZ22" s="24"/>
+      <c r="DA22" s="24"/>
+      <c r="DB22" s="24"/>
+      <c r="DC22" s="24"/>
+      <c r="DD22" s="24"/>
+      <c r="DE22" s="24"/>
       <c r="DG22" s="30"/>
       <c r="DH22" s="30"/>
       <c r="DI22" s="30"/>
@@ -16332,119 +16347,116 @@
       <c r="ZY22" s="30"/>
       <c r="ZZ22" s="30"/>
     </row>
-    <row r="23" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A23" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="42"/>
+    <row r="23" spans="1:702" ht="6" customHeight="1">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="30"/>
+      <c r="AX23" s="30"/>
+      <c r="AY23" s="30"/>
+      <c r="AZ23" s="30"/>
+      <c r="BA23" s="30"/>
       <c r="BB23" s="30"/>
       <c r="BC23" s="30"/>
-      <c r="BD23" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="42"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="42"/>
-      <c r="BL23" s="42"/>
-      <c r="BM23" s="42"/>
-      <c r="BN23" s="42"/>
-      <c r="BO23" s="42"/>
-      <c r="BP23" s="42"/>
-      <c r="BQ23" s="42"/>
-      <c r="BR23" s="42"/>
-      <c r="BS23" s="42"/>
-      <c r="BT23" s="42"/>
-      <c r="BU23" s="42"/>
-      <c r="BV23" s="42"/>
-      <c r="BW23" s="42"/>
-      <c r="BX23" s="42"/>
-      <c r="BY23" s="42"/>
-      <c r="BZ23" s="42"/>
-      <c r="CA23" s="42"/>
-      <c r="CB23" s="42"/>
-      <c r="CC23" s="42"/>
-      <c r="CD23" s="42"/>
-      <c r="CE23" s="42"/>
-      <c r="CF23" s="42"/>
-      <c r="CG23" s="42"/>
-      <c r="CH23" s="42"/>
-      <c r="CI23" s="42"/>
-      <c r="CJ23" s="42"/>
-      <c r="CK23" s="42"/>
-      <c r="CL23" s="42"/>
-      <c r="CM23" s="42"/>
-      <c r="CN23" s="42"/>
-      <c r="CO23" s="42"/>
-      <c r="CP23" s="42"/>
-      <c r="CQ23" s="42"/>
-      <c r="CR23" s="42"/>
-      <c r="CS23" s="42"/>
-      <c r="CT23" s="42"/>
-      <c r="CU23" s="42"/>
-      <c r="CV23" s="42"/>
-      <c r="CW23" s="42"/>
-      <c r="CX23" s="42"/>
-      <c r="CY23" s="42"/>
-      <c r="CZ23" s="42"/>
-      <c r="DA23" s="42"/>
-      <c r="DB23" s="42"/>
-      <c r="DC23" s="42"/>
-      <c r="DD23" s="42"/>
-      <c r="DE23" s="42"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="30"/>
+      <c r="BF23" s="30"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="30"/>
+      <c r="BJ23" s="30"/>
+      <c r="BK23" s="30"/>
+      <c r="BL23" s="30"/>
+      <c r="BM23" s="30"/>
+      <c r="BN23" s="30"/>
+      <c r="BO23" s="30"/>
+      <c r="BP23" s="30"/>
+      <c r="BQ23" s="30"/>
+      <c r="BR23" s="30"/>
+      <c r="BS23" s="30"/>
+      <c r="BT23" s="30"/>
+      <c r="BU23" s="30"/>
+      <c r="BV23" s="30"/>
+      <c r="BW23" s="30"/>
+      <c r="BX23" s="30"/>
+      <c r="BY23" s="30"/>
+      <c r="BZ23" s="30"/>
+      <c r="CA23" s="30"/>
+      <c r="CB23" s="30"/>
+      <c r="CC23" s="30"/>
+      <c r="CD23" s="30"/>
+      <c r="CE23" s="30"/>
+      <c r="CF23" s="30"/>
+      <c r="CG23" s="30"/>
+      <c r="CH23" s="30"/>
+      <c r="CI23" s="30"/>
+      <c r="CJ23" s="30"/>
+      <c r="CK23" s="30"/>
+      <c r="CL23" s="30"/>
+      <c r="CM23" s="30"/>
+      <c r="CN23" s="30"/>
+      <c r="CO23" s="30"/>
+      <c r="CP23" s="30"/>
+      <c r="CQ23" s="30"/>
+      <c r="CR23" s="30"/>
+      <c r="CS23" s="30"/>
+      <c r="CT23" s="30"/>
+      <c r="CU23" s="30"/>
+      <c r="CV23" s="30"/>
+      <c r="CW23" s="30"/>
+      <c r="CX23" s="30"/>
+      <c r="CY23" s="30"/>
+      <c r="CZ23" s="30"/>
+      <c r="DA23" s="30"/>
+      <c r="DB23" s="30"/>
+      <c r="DC23" s="30"/>
+      <c r="DD23" s="30"/>
+      <c r="DE23" s="30"/>
+      <c r="DF23" s="30"/>
       <c r="DG23" s="30"/>
       <c r="DH23" s="30"/>
       <c r="DI23" s="30"/>
@@ -17033,126 +17045,124 @@
       <c r="ZT23" s="30"/>
       <c r="ZU23" s="30"/>
       <c r="ZV23" s="30"/>
-      <c r="ZW23" s="15" t="s">
+      <c r="ZW23" s="30"/>
+      <c r="ZX23" s="30"/>
+      <c r="ZY23" s="30"/>
+      <c r="ZZ23" s="30"/>
+    </row>
+    <row r="24" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A24" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
+      <c r="AT24" s="42"/>
+      <c r="AU24" s="42"/>
+      <c r="AV24" s="42"/>
+      <c r="AW24" s="42"/>
+      <c r="AX24" s="42"/>
+      <c r="AY24" s="42"/>
+      <c r="AZ24" s="42"/>
+      <c r="BB24" s="30"/>
+      <c r="BC24" s="30"/>
+      <c r="BD24" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="ZY23" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:702" ht="6.75" customHeight="1">
-      <c r="A24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="26"/>
-      <c r="AS24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="AU24" s="26"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="26"/>
-      <c r="AY24" s="26"/>
-      <c r="AZ24" s="26"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="30"/>
-      <c r="BD24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE24" s="26"/>
-      <c r="BF24" s="26"/>
-      <c r="BG24" s="26"/>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="26"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="26"/>
-      <c r="BL24" s="26"/>
-      <c r="BM24" s="26"/>
-      <c r="BN24" s="26"/>
-      <c r="BO24" s="26"/>
-      <c r="BP24" s="26"/>
-      <c r="BQ24" s="26"/>
-      <c r="BR24" s="26"/>
-      <c r="BS24" s="26"/>
-      <c r="BT24" s="26"/>
-      <c r="BU24" s="26"/>
-      <c r="BV24" s="26"/>
-      <c r="BW24" s="26"/>
-      <c r="BX24" s="26"/>
-      <c r="BY24" s="26"/>
-      <c r="BZ24" s="26"/>
-      <c r="CA24" s="26"/>
-      <c r="CB24" s="26"/>
-      <c r="CC24" s="26"/>
-      <c r="CD24" s="26"/>
-      <c r="CE24" s="26"/>
-      <c r="CF24" s="26"/>
-      <c r="CG24" s="26"/>
-      <c r="CH24" s="26"/>
-      <c r="CI24" s="26"/>
-      <c r="CJ24" s="26"/>
-      <c r="CK24" s="26"/>
-      <c r="CL24" s="26"/>
-      <c r="CM24" s="26"/>
-      <c r="CN24" s="26"/>
-      <c r="CO24" s="26"/>
-      <c r="CP24" s="26"/>
-      <c r="CQ24" s="26"/>
-      <c r="CR24" s="26"/>
-      <c r="CS24" s="26"/>
-      <c r="CT24" s="26"/>
-      <c r="CU24" s="26"/>
-      <c r="CV24" s="26"/>
-      <c r="CW24" s="26"/>
-      <c r="CX24" s="26"/>
-      <c r="CY24" s="26"/>
-      <c r="CZ24" s="26"/>
-      <c r="DA24" s="26"/>
-      <c r="DB24" s="26"/>
-      <c r="DC24" s="26"/>
-      <c r="DD24" s="26"/>
-      <c r="DE24" s="26"/>
+      <c r="BE24" s="42"/>
+      <c r="BF24" s="42"/>
+      <c r="BG24" s="42"/>
+      <c r="BH24" s="42"/>
+      <c r="BI24" s="42"/>
+      <c r="BJ24" s="42"/>
+      <c r="BK24" s="42"/>
+      <c r="BL24" s="42"/>
+      <c r="BM24" s="42"/>
+      <c r="BN24" s="42"/>
+      <c r="BO24" s="42"/>
+      <c r="BP24" s="42"/>
+      <c r="BQ24" s="42"/>
+      <c r="BR24" s="42"/>
+      <c r="BS24" s="42"/>
+      <c r="BT24" s="42"/>
+      <c r="BU24" s="42"/>
+      <c r="BV24" s="42"/>
+      <c r="BW24" s="42"/>
+      <c r="BX24" s="42"/>
+      <c r="BY24" s="42"/>
+      <c r="BZ24" s="42"/>
+      <c r="CA24" s="42"/>
+      <c r="CB24" s="42"/>
+      <c r="CC24" s="42"/>
+      <c r="CD24" s="42"/>
+      <c r="CE24" s="42"/>
+      <c r="CF24" s="42"/>
+      <c r="CG24" s="42"/>
+      <c r="CH24" s="42"/>
+      <c r="CI24" s="42"/>
+      <c r="CJ24" s="42"/>
+      <c r="CK24" s="42"/>
+      <c r="CL24" s="42"/>
+      <c r="CM24" s="42"/>
+      <c r="CN24" s="42"/>
+      <c r="CO24" s="42"/>
+      <c r="CP24" s="42"/>
+      <c r="CQ24" s="42"/>
+      <c r="CR24" s="42"/>
+      <c r="CS24" s="42"/>
+      <c r="CT24" s="42"/>
+      <c r="CU24" s="42"/>
+      <c r="CV24" s="42"/>
+      <c r="CW24" s="42"/>
+      <c r="CX24" s="42"/>
+      <c r="CY24" s="42"/>
+      <c r="CZ24" s="42"/>
+      <c r="DA24" s="42"/>
+      <c r="DB24" s="42"/>
+      <c r="DC24" s="42"/>
+      <c r="DD24" s="42"/>
+      <c r="DE24" s="42"/>
       <c r="DG24" s="30"/>
       <c r="DH24" s="30"/>
       <c r="DI24" s="30"/>
@@ -17741,121 +17751,126 @@
       <c r="ZT24" s="30"/>
       <c r="ZU24" s="30"/>
       <c r="ZV24" s="30"/>
-      <c r="ZW24" s="30"/>
-      <c r="ZX24" s="30"/>
-      <c r="ZY24" s="30"/>
-      <c r="ZZ24" s="30"/>
+      <c r="ZW24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="ZY24" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="25" spans="1:702" ht="3.75" customHeight="1">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="30"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
-      <c r="AU25" s="30"/>
-      <c r="AV25" s="30"/>
-      <c r="AW25" s="30"/>
-      <c r="AX25" s="30"/>
-      <c r="AY25" s="30"/>
-      <c r="AZ25" s="30"/>
-      <c r="BA25" s="30"/>
+    <row r="25" spans="1:702" ht="6.75" customHeight="1">
+      <c r="A25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
       <c r="BB25" s="30"/>
       <c r="BC25" s="30"/>
-      <c r="BD25" s="30"/>
-      <c r="BE25" s="30"/>
-      <c r="BF25" s="30"/>
-      <c r="BG25" s="30"/>
-      <c r="BH25" s="30"/>
-      <c r="BI25" s="30"/>
-      <c r="BJ25" s="30"/>
-      <c r="BK25" s="30"/>
-      <c r="BL25" s="30"/>
-      <c r="BM25" s="30"/>
-      <c r="BN25" s="30"/>
-      <c r="BO25" s="30"/>
-      <c r="BP25" s="30"/>
-      <c r="BQ25" s="30"/>
-      <c r="BR25" s="30"/>
-      <c r="BS25" s="30"/>
-      <c r="BT25" s="30"/>
-      <c r="BU25" s="30"/>
-      <c r="BV25" s="30"/>
-      <c r="BW25" s="30"/>
-      <c r="BX25" s="30"/>
-      <c r="BY25" s="30"/>
-      <c r="BZ25" s="30"/>
-      <c r="CA25" s="30"/>
-      <c r="CB25" s="30"/>
-      <c r="CC25" s="30"/>
-      <c r="CD25" s="30"/>
-      <c r="CE25" s="30"/>
-      <c r="CF25" s="30"/>
-      <c r="CG25" s="30"/>
-      <c r="CH25" s="30"/>
-      <c r="CI25" s="30"/>
-      <c r="CJ25" s="30"/>
-      <c r="CK25" s="30"/>
-      <c r="CL25" s="30"/>
-      <c r="CM25" s="30"/>
-      <c r="CN25" s="30"/>
-      <c r="CO25" s="30"/>
-      <c r="CP25" s="30"/>
-      <c r="CQ25" s="30"/>
-      <c r="CR25" s="30"/>
-      <c r="CS25" s="30"/>
-      <c r="CT25" s="30"/>
-      <c r="CU25" s="30"/>
-      <c r="CV25" s="30"/>
-      <c r="CW25" s="30"/>
-      <c r="CX25" s="30"/>
-      <c r="CY25" s="30"/>
-      <c r="CZ25" s="30"/>
-      <c r="DA25" s="30"/>
-      <c r="DB25" s="30"/>
-      <c r="DC25" s="30"/>
-      <c r="DD25" s="30"/>
-      <c r="DE25" s="30"/>
-      <c r="DF25" s="30"/>
+      <c r="BD25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="26"/>
+      <c r="BG25" s="26"/>
+      <c r="BH25" s="26"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="26"/>
+      <c r="BL25" s="26"/>
+      <c r="BM25" s="26"/>
+      <c r="BN25" s="26"/>
+      <c r="BO25" s="26"/>
+      <c r="BP25" s="26"/>
+      <c r="BQ25" s="26"/>
+      <c r="BR25" s="26"/>
+      <c r="BS25" s="26"/>
+      <c r="BT25" s="26"/>
+      <c r="BU25" s="26"/>
+      <c r="BV25" s="26"/>
+      <c r="BW25" s="26"/>
+      <c r="BX25" s="26"/>
+      <c r="BY25" s="26"/>
+      <c r="BZ25" s="26"/>
+      <c r="CA25" s="26"/>
+      <c r="CB25" s="26"/>
+      <c r="CC25" s="26"/>
+      <c r="CD25" s="26"/>
+      <c r="CE25" s="26"/>
+      <c r="CF25" s="26"/>
+      <c r="CG25" s="26"/>
+      <c r="CH25" s="26"/>
+      <c r="CI25" s="26"/>
+      <c r="CJ25" s="26"/>
+      <c r="CK25" s="26"/>
+      <c r="CL25" s="26"/>
+      <c r="CM25" s="26"/>
+      <c r="CN25" s="26"/>
+      <c r="CO25" s="26"/>
+      <c r="CP25" s="26"/>
+      <c r="CQ25" s="26"/>
+      <c r="CR25" s="26"/>
+      <c r="CS25" s="26"/>
+      <c r="CT25" s="26"/>
+      <c r="CU25" s="26"/>
+      <c r="CV25" s="26"/>
+      <c r="CW25" s="26"/>
+      <c r="CX25" s="26"/>
+      <c r="CY25" s="26"/>
+      <c r="CZ25" s="26"/>
+      <c r="DA25" s="26"/>
+      <c r="DB25" s="26"/>
+      <c r="DC25" s="26"/>
+      <c r="DD25" s="26"/>
+      <c r="DE25" s="26"/>
       <c r="DG25" s="30"/>
       <c r="DH25" s="30"/>
       <c r="DI25" s="30"/>
@@ -18449,119 +18464,116 @@
       <c r="ZY25" s="30"/>
       <c r="ZZ25" s="30"/>
     </row>
-    <row r="26" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="44"/>
+    <row r="26" spans="1:702" ht="3.75" customHeight="1">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="30"/>
+      <c r="AT26" s="30"/>
+      <c r="AU26" s="30"/>
+      <c r="AV26" s="30"/>
+      <c r="AW26" s="30"/>
+      <c r="AX26" s="30"/>
+      <c r="AY26" s="30"/>
+      <c r="AZ26" s="30"/>
+      <c r="BA26" s="30"/>
       <c r="BB26" s="30"/>
       <c r="BC26" s="30"/>
-      <c r="BD26" s="43"/>
-      <c r="BE26" s="43"/>
-      <c r="BF26" s="43"/>
-      <c r="BG26" s="43"/>
-      <c r="BH26" s="43"/>
-      <c r="BI26" s="43"/>
-      <c r="BJ26" s="43"/>
-      <c r="BK26" s="43"/>
-      <c r="BL26" s="43"/>
-      <c r="BM26" s="43"/>
-      <c r="BN26" s="43"/>
-      <c r="BO26" s="43"/>
-      <c r="BP26" s="43"/>
-      <c r="BQ26" s="43"/>
-      <c r="BR26" s="43"/>
-      <c r="BS26" s="43"/>
-      <c r="BT26" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="BU26" s="44"/>
-      <c r="BV26" s="44"/>
-      <c r="BW26" s="44"/>
-      <c r="BX26" s="44"/>
-      <c r="BY26" s="44"/>
-      <c r="BZ26" s="44"/>
-      <c r="CA26" s="44"/>
-      <c r="CB26" s="44"/>
-      <c r="CC26" s="44"/>
-      <c r="CD26" s="44"/>
-      <c r="CE26" s="44"/>
-      <c r="CF26" s="44"/>
-      <c r="CG26" s="44"/>
-      <c r="CH26" s="44"/>
-      <c r="CI26" s="44"/>
-      <c r="CJ26" s="44"/>
-      <c r="CK26" s="44"/>
-      <c r="CL26" s="44"/>
-      <c r="CM26" s="44"/>
-      <c r="CN26" s="44"/>
-      <c r="CO26" s="44"/>
-      <c r="CP26" s="44"/>
-      <c r="CQ26" s="44"/>
-      <c r="CR26" s="44"/>
-      <c r="CS26" s="44"/>
-      <c r="CT26" s="44"/>
-      <c r="CU26" s="44"/>
-      <c r="CV26" s="44"/>
-      <c r="CW26" s="44"/>
-      <c r="CX26" s="44"/>
-      <c r="CY26" s="44"/>
-      <c r="CZ26" s="44"/>
-      <c r="DA26" s="44"/>
-      <c r="DB26" s="44"/>
-      <c r="DC26" s="44"/>
-      <c r="DD26" s="44"/>
-      <c r="DE26" s="44"/>
+      <c r="BD26" s="30"/>
+      <c r="BE26" s="30"/>
+      <c r="BF26" s="30"/>
+      <c r="BG26" s="30"/>
+      <c r="BH26" s="30"/>
+      <c r="BI26" s="30"/>
+      <c r="BJ26" s="30"/>
+      <c r="BK26" s="30"/>
+      <c r="BL26" s="30"/>
+      <c r="BM26" s="30"/>
+      <c r="BN26" s="30"/>
+      <c r="BO26" s="30"/>
+      <c r="BP26" s="30"/>
+      <c r="BQ26" s="30"/>
+      <c r="BR26" s="30"/>
+      <c r="BS26" s="30"/>
+      <c r="BT26" s="30"/>
+      <c r="BU26" s="30"/>
+      <c r="BV26" s="30"/>
+      <c r="BW26" s="30"/>
+      <c r="BX26" s="30"/>
+      <c r="BY26" s="30"/>
+      <c r="BZ26" s="30"/>
+      <c r="CA26" s="30"/>
+      <c r="CB26" s="30"/>
+      <c r="CC26" s="30"/>
+      <c r="CD26" s="30"/>
+      <c r="CE26" s="30"/>
+      <c r="CF26" s="30"/>
+      <c r="CG26" s="30"/>
+      <c r="CH26" s="30"/>
+      <c r="CI26" s="30"/>
+      <c r="CJ26" s="30"/>
+      <c r="CK26" s="30"/>
+      <c r="CL26" s="30"/>
+      <c r="CM26" s="30"/>
+      <c r="CN26" s="30"/>
+      <c r="CO26" s="30"/>
+      <c r="CP26" s="30"/>
+      <c r="CQ26" s="30"/>
+      <c r="CR26" s="30"/>
+      <c r="CS26" s="30"/>
+      <c r="CT26" s="30"/>
+      <c r="CU26" s="30"/>
+      <c r="CV26" s="30"/>
+      <c r="CW26" s="30"/>
+      <c r="CX26" s="30"/>
+      <c r="CY26" s="30"/>
+      <c r="CZ26" s="30"/>
+      <c r="DA26" s="30"/>
+      <c r="DB26" s="30"/>
+      <c r="DC26" s="30"/>
+      <c r="DD26" s="30"/>
+      <c r="DE26" s="30"/>
+      <c r="DF26" s="30"/>
       <c r="DG26" s="30"/>
       <c r="DH26" s="30"/>
       <c r="DI26" s="30"/>
@@ -19155,123 +19167,119 @@
       <c r="ZY26" s="30"/>
       <c r="ZZ26" s="30"/>
     </row>
-    <row r="27" spans="1:702" ht="6.75" customHeight="1">
-      <c r="A27" s="26" t="s">
-        <v>27</v>
+    <row r="27" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="44" t="s">
+        <v>25</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="26"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="26"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="26"/>
-      <c r="AR27" s="26"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="26"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="26"/>
-      <c r="AZ27" s="26"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="44"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
       <c r="BB27" s="30"/>
       <c r="BC27" s="30"/>
-      <c r="BD27" s="26" t="s">
-        <v>27</v>
+      <c r="BD27" s="43"/>
+      <c r="BE27" s="43"/>
+      <c r="BF27" s="43"/>
+      <c r="BG27" s="43"/>
+      <c r="BH27" s="43"/>
+      <c r="BI27" s="43"/>
+      <c r="BJ27" s="43"/>
+      <c r="BK27" s="43"/>
+      <c r="BL27" s="43"/>
+      <c r="BM27" s="43"/>
+      <c r="BN27" s="43"/>
+      <c r="BO27" s="43"/>
+      <c r="BP27" s="43"/>
+      <c r="BQ27" s="43"/>
+      <c r="BR27" s="43"/>
+      <c r="BS27" s="43"/>
+      <c r="BT27" s="44" t="s">
+        <v>26</v>
       </c>
-      <c r="BE27" s="26"/>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="26"/>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="26"/>
-      <c r="BJ27" s="26"/>
-      <c r="BK27" s="26"/>
-      <c r="BL27" s="26"/>
-      <c r="BM27" s="26"/>
-      <c r="BN27" s="26"/>
-      <c r="BO27" s="26"/>
-      <c r="BP27" s="26"/>
-      <c r="BQ27" s="26"/>
-      <c r="BR27" s="26"/>
-      <c r="BS27" s="26"/>
-      <c r="BT27" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="BU27" s="26"/>
-      <c r="BV27" s="26"/>
-      <c r="BW27" s="26"/>
-      <c r="BX27" s="26"/>
-      <c r="BY27" s="26"/>
-      <c r="BZ27" s="26"/>
-      <c r="CA27" s="26"/>
-      <c r="CB27" s="26"/>
-      <c r="CC27" s="26"/>
-      <c r="CD27" s="26"/>
-      <c r="CE27" s="26"/>
-      <c r="CF27" s="26"/>
-      <c r="CG27" s="26"/>
-      <c r="CH27" s="26"/>
-      <c r="CI27" s="26"/>
-      <c r="CJ27" s="26"/>
-      <c r="CK27" s="26"/>
-      <c r="CL27" s="26"/>
-      <c r="CM27" s="26"/>
-      <c r="CN27" s="26"/>
-      <c r="CO27" s="26"/>
-      <c r="CP27" s="26"/>
-      <c r="CQ27" s="26"/>
-      <c r="CR27" s="26"/>
-      <c r="CS27" s="26"/>
-      <c r="CT27" s="26"/>
-      <c r="CU27" s="26"/>
-      <c r="CV27" s="26"/>
-      <c r="CW27" s="26"/>
-      <c r="CX27" s="26"/>
-      <c r="CY27" s="26"/>
-      <c r="CZ27" s="26"/>
-      <c r="DA27" s="26"/>
-      <c r="DB27" s="26"/>
-      <c r="DC27" s="26"/>
-      <c r="DD27" s="26"/>
-      <c r="DE27" s="26"/>
+      <c r="BU27" s="44"/>
+      <c r="BV27" s="44"/>
+      <c r="BW27" s="44"/>
+      <c r="BX27" s="44"/>
+      <c r="BY27" s="44"/>
+      <c r="BZ27" s="44"/>
+      <c r="CA27" s="44"/>
+      <c r="CB27" s="44"/>
+      <c r="CC27" s="44"/>
+      <c r="CD27" s="44"/>
+      <c r="CE27" s="44"/>
+      <c r="CF27" s="44"/>
+      <c r="CG27" s="44"/>
+      <c r="CH27" s="44"/>
+      <c r="CI27" s="44"/>
+      <c r="CJ27" s="44"/>
+      <c r="CK27" s="44"/>
+      <c r="CL27" s="44"/>
+      <c r="CM27" s="44"/>
+      <c r="CN27" s="44"/>
+      <c r="CO27" s="44"/>
+      <c r="CP27" s="44"/>
+      <c r="CQ27" s="44"/>
+      <c r="CR27" s="44"/>
+      <c r="CS27" s="44"/>
+      <c r="CT27" s="44"/>
+      <c r="CU27" s="44"/>
+      <c r="CV27" s="44"/>
+      <c r="CW27" s="44"/>
+      <c r="CX27" s="44"/>
+      <c r="CY27" s="44"/>
+      <c r="CZ27" s="44"/>
+      <c r="DA27" s="44"/>
+      <c r="DB27" s="44"/>
+      <c r="DC27" s="44"/>
+      <c r="DD27" s="44"/>
+      <c r="DE27" s="44"/>
       <c r="DG27" s="30"/>
       <c r="DH27" s="30"/>
       <c r="DI27" s="30"/>
@@ -19866,115 +19874,122 @@
       <c r="ZZ27" s="30"/>
     </row>
     <row r="28" spans="1:702" ht="6.75" customHeight="1">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
-      <c r="AU28" s="30"/>
-      <c r="AV28" s="30"/>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="30"/>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="30"/>
-      <c r="BA28" s="30"/>
+      <c r="A28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
       <c r="BB28" s="30"/>
       <c r="BC28" s="30"/>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
-      <c r="BF28" s="30"/>
-      <c r="BG28" s="30"/>
-      <c r="BH28" s="30"/>
-      <c r="BI28" s="30"/>
-      <c r="BJ28" s="30"/>
-      <c r="BK28" s="30"/>
-      <c r="BL28" s="30"/>
-      <c r="BM28" s="30"/>
-      <c r="BN28" s="30"/>
-      <c r="BO28" s="30"/>
-      <c r="BP28" s="30"/>
-      <c r="BQ28" s="30"/>
-      <c r="BR28" s="30"/>
-      <c r="BS28" s="30"/>
-      <c r="BT28" s="30"/>
-      <c r="BU28" s="30"/>
-      <c r="BV28" s="30"/>
-      <c r="BW28" s="30"/>
-      <c r="BX28" s="30"/>
-      <c r="BY28" s="30"/>
-      <c r="BZ28" s="30"/>
-      <c r="CA28" s="30"/>
-      <c r="CB28" s="30"/>
-      <c r="CC28" s="30"/>
-      <c r="CD28" s="30"/>
-      <c r="CE28" s="30"/>
-      <c r="CF28" s="30"/>
-      <c r="CG28" s="30"/>
-      <c r="CH28" s="30"/>
-      <c r="CI28" s="30"/>
-      <c r="CJ28" s="30"/>
-      <c r="CK28" s="30"/>
-      <c r="CL28" s="30"/>
-      <c r="CM28" s="30"/>
-      <c r="CN28" s="30"/>
-      <c r="CO28" s="30"/>
-      <c r="CP28" s="30"/>
-      <c r="CQ28" s="30"/>
-      <c r="CR28" s="30"/>
-      <c r="CS28" s="30"/>
-      <c r="CT28" s="30"/>
-      <c r="CU28" s="30"/>
-      <c r="CV28" s="30"/>
-      <c r="CW28" s="30"/>
-      <c r="CX28" s="30"/>
-      <c r="CY28" s="30"/>
-      <c r="CZ28" s="30"/>
-      <c r="DA28" s="30"/>
-      <c r="DB28" s="30"/>
-      <c r="DC28" s="30"/>
-      <c r="DD28" s="30"/>
-      <c r="DE28" s="30"/>
-      <c r="DF28" s="30"/>
+      <c r="BD28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="26"/>
+      <c r="BG28" s="26"/>
+      <c r="BH28" s="26"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="26"/>
+      <c r="BK28" s="26"/>
+      <c r="BL28" s="26"/>
+      <c r="BM28" s="26"/>
+      <c r="BN28" s="26"/>
+      <c r="BO28" s="26"/>
+      <c r="BP28" s="26"/>
+      <c r="BQ28" s="26"/>
+      <c r="BR28" s="26"/>
+      <c r="BS28" s="26"/>
+      <c r="BT28" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="BU28" s="26"/>
+      <c r="BV28" s="26"/>
+      <c r="BW28" s="26"/>
+      <c r="BX28" s="26"/>
+      <c r="BY28" s="26"/>
+      <c r="BZ28" s="26"/>
+      <c r="CA28" s="26"/>
+      <c r="CB28" s="26"/>
+      <c r="CC28" s="26"/>
+      <c r="CD28" s="26"/>
+      <c r="CE28" s="26"/>
+      <c r="CF28" s="26"/>
+      <c r="CG28" s="26"/>
+      <c r="CH28" s="26"/>
+      <c r="CI28" s="26"/>
+      <c r="CJ28" s="26"/>
+      <c r="CK28" s="26"/>
+      <c r="CL28" s="26"/>
+      <c r="CM28" s="26"/>
+      <c r="CN28" s="26"/>
+      <c r="CO28" s="26"/>
+      <c r="CP28" s="26"/>
+      <c r="CQ28" s="26"/>
+      <c r="CR28" s="26"/>
+      <c r="CS28" s="26"/>
+      <c r="CT28" s="26"/>
+      <c r="CU28" s="26"/>
+      <c r="CV28" s="26"/>
+      <c r="CW28" s="26"/>
+      <c r="CX28" s="26"/>
+      <c r="CY28" s="26"/>
+      <c r="CZ28" s="26"/>
+      <c r="DA28" s="26"/>
+      <c r="DB28" s="26"/>
+      <c r="DC28" s="26"/>
+      <c r="DD28" s="26"/>
+      <c r="DE28" s="26"/>
       <c r="DG28" s="30"/>
       <c r="DH28" s="30"/>
       <c r="DI28" s="30"/>
@@ -20568,7 +20583,7 @@
       <c r="ZY28" s="30"/>
       <c r="ZZ28" s="30"/>
     </row>
-    <row r="29" spans="1:702" ht="14.25" customHeight="1">
+    <row r="29" spans="1:702" ht="6.75" customHeight="1">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -20585,14 +20600,13 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
       <c r="AA29" s="30"/>
@@ -20646,14 +20660,13 @@
       <c r="BW29" s="30"/>
       <c r="BX29" s="30"/>
       <c r="BY29" s="30"/>
-      <c r="BZ29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA29" s="4"/>
-      <c r="CB29" s="4"/>
-      <c r="CC29" s="4"/>
-      <c r="CD29" s="4"/>
-      <c r="CE29" s="4"/>
+      <c r="BZ29" s="30"/>
+      <c r="CA29" s="30"/>
+      <c r="CB29" s="30"/>
+      <c r="CC29" s="30"/>
+      <c r="CD29" s="30"/>
+      <c r="CE29" s="30"/>
+      <c r="CF29" s="30"/>
       <c r="CG29" s="30"/>
       <c r="CH29" s="30"/>
       <c r="CI29" s="30"/>
@@ -21273,7 +21286,7 @@
       <c r="ZY29" s="30"/>
       <c r="ZZ29" s="30"/>
     </row>
-    <row r="30" spans="1:702" ht="11.25" hidden="1">
+    <row r="30" spans="1:702" ht="14.25" customHeight="1">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -21290,13 +21303,14 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
+      <c r="R30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="30"/>
       <c r="AA30" s="30"/>
@@ -21350,13 +21364,14 @@
       <c r="BW30" s="30"/>
       <c r="BX30" s="30"/>
       <c r="BY30" s="30"/>
-      <c r="BZ30" s="30"/>
-      <c r="CA30" s="30"/>
-      <c r="CB30" s="30"/>
-      <c r="CC30" s="30"/>
-      <c r="CD30" s="30"/>
-      <c r="CE30" s="30"/>
-      <c r="CF30" s="30"/>
+      <c r="BZ30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA30" s="4"/>
+      <c r="CB30" s="4"/>
+      <c r="CC30" s="4"/>
+      <c r="CD30" s="4"/>
+      <c r="CE30" s="4"/>
       <c r="CG30" s="30"/>
       <c r="CH30" s="30"/>
       <c r="CI30" s="30"/>
@@ -21382,6 +21397,7 @@
       <c r="DC30" s="30"/>
       <c r="DD30" s="30"/>
       <c r="DE30" s="30"/>
+      <c r="DF30" s="30"/>
       <c r="DG30" s="30"/>
       <c r="DH30" s="30"/>
       <c r="DI30" s="30"/>
@@ -21951,7 +21967,11 @@
       <c r="ZA30" s="30"/>
       <c r="ZB30" s="30"/>
       <c r="ZC30" s="30"/>
+      <c r="ZD30" s="30"/>
+      <c r="ZE30" s="30"/>
+      <c r="ZF30" s="30"/>
       <c r="ZG30" s="30"/>
+      <c r="ZH30" s="30"/>
       <c r="ZI30" s="30"/>
       <c r="ZJ30" s="30"/>
       <c r="ZK30" s="30"/>
@@ -21966,10 +21986,708 @@
       <c r="ZT30" s="30"/>
       <c r="ZU30" s="30"/>
       <c r="ZV30" s="30"/>
+      <c r="ZW30" s="30"/>
+      <c r="ZX30" s="30"/>
+      <c r="ZY30" s="30"/>
       <c r="ZZ30" s="30"/>
     </row>
+    <row r="31" spans="1:702" ht="11.25" hidden="1">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="30"/>
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="30"/>
+      <c r="AS31" s="30"/>
+      <c r="AT31" s="30"/>
+      <c r="AU31" s="30"/>
+      <c r="AV31" s="30"/>
+      <c r="AW31" s="30"/>
+      <c r="AX31" s="30"/>
+      <c r="AY31" s="30"/>
+      <c r="AZ31" s="30"/>
+      <c r="BA31" s="30"/>
+      <c r="BB31" s="30"/>
+      <c r="BC31" s="30"/>
+      <c r="BD31" s="30"/>
+      <c r="BE31" s="30"/>
+      <c r="BF31" s="30"/>
+      <c r="BG31" s="30"/>
+      <c r="BH31" s="30"/>
+      <c r="BI31" s="30"/>
+      <c r="BJ31" s="30"/>
+      <c r="BK31" s="30"/>
+      <c r="BL31" s="30"/>
+      <c r="BM31" s="30"/>
+      <c r="BN31" s="30"/>
+      <c r="BO31" s="30"/>
+      <c r="BP31" s="30"/>
+      <c r="BQ31" s="30"/>
+      <c r="BR31" s="30"/>
+      <c r="BS31" s="30"/>
+      <c r="BT31" s="30"/>
+      <c r="BU31" s="30"/>
+      <c r="BV31" s="30"/>
+      <c r="BW31" s="30"/>
+      <c r="BX31" s="30"/>
+      <c r="BY31" s="30"/>
+      <c r="BZ31" s="30"/>
+      <c r="CA31" s="30"/>
+      <c r="CB31" s="30"/>
+      <c r="CC31" s="30"/>
+      <c r="CD31" s="30"/>
+      <c r="CE31" s="30"/>
+      <c r="CF31" s="30"/>
+      <c r="CG31" s="30"/>
+      <c r="CH31" s="30"/>
+      <c r="CI31" s="30"/>
+      <c r="CJ31" s="30"/>
+      <c r="CK31" s="30"/>
+      <c r="CL31" s="30"/>
+      <c r="CM31" s="30"/>
+      <c r="CN31" s="30"/>
+      <c r="CO31" s="30"/>
+      <c r="CP31" s="30"/>
+      <c r="CQ31" s="30"/>
+      <c r="CR31" s="30"/>
+      <c r="CS31" s="30"/>
+      <c r="CT31" s="30"/>
+      <c r="CU31" s="30"/>
+      <c r="CV31" s="30"/>
+      <c r="CW31" s="30"/>
+      <c r="CX31" s="30"/>
+      <c r="CY31" s="30"/>
+      <c r="CZ31" s="30"/>
+      <c r="DA31" s="30"/>
+      <c r="DB31" s="30"/>
+      <c r="DC31" s="30"/>
+      <c r="DD31" s="30"/>
+      <c r="DE31" s="30"/>
+      <c r="DG31" s="30"/>
+      <c r="DH31" s="30"/>
+      <c r="DI31" s="30"/>
+      <c r="DJ31" s="30"/>
+      <c r="DK31" s="30"/>
+      <c r="DL31" s="30"/>
+      <c r="DM31" s="30"/>
+      <c r="DN31" s="30"/>
+      <c r="DO31" s="30"/>
+      <c r="DP31" s="30"/>
+      <c r="DQ31" s="30"/>
+      <c r="DR31" s="30"/>
+      <c r="DS31" s="30"/>
+      <c r="DT31" s="30"/>
+      <c r="DU31" s="30"/>
+      <c r="DV31" s="30"/>
+      <c r="DW31" s="30"/>
+      <c r="DX31" s="30"/>
+      <c r="DY31" s="30"/>
+      <c r="DZ31" s="30"/>
+      <c r="EA31" s="30"/>
+      <c r="EB31" s="30"/>
+      <c r="EC31" s="30"/>
+      <c r="ED31" s="30"/>
+      <c r="EE31" s="30"/>
+      <c r="EF31" s="30"/>
+      <c r="EG31" s="30"/>
+      <c r="EH31" s="30"/>
+      <c r="EI31" s="30"/>
+      <c r="EJ31" s="30"/>
+      <c r="EK31" s="30"/>
+      <c r="EL31" s="30"/>
+      <c r="EM31" s="30"/>
+      <c r="EN31" s="30"/>
+      <c r="EO31" s="30"/>
+      <c r="EP31" s="30"/>
+      <c r="EQ31" s="30"/>
+      <c r="ER31" s="30"/>
+      <c r="ES31" s="30"/>
+      <c r="ET31" s="30"/>
+      <c r="EU31" s="30"/>
+      <c r="EV31" s="30"/>
+      <c r="EW31" s="30"/>
+      <c r="EX31" s="30"/>
+      <c r="EY31" s="30"/>
+      <c r="EZ31" s="30"/>
+      <c r="FA31" s="30"/>
+      <c r="FB31" s="30"/>
+      <c r="FC31" s="30"/>
+      <c r="FD31" s="30"/>
+      <c r="FE31" s="30"/>
+      <c r="FF31" s="30"/>
+      <c r="FG31" s="30"/>
+      <c r="FH31" s="30"/>
+      <c r="FI31" s="30"/>
+      <c r="FJ31" s="30"/>
+      <c r="FK31" s="30"/>
+      <c r="FL31" s="30"/>
+      <c r="FM31" s="30"/>
+      <c r="FN31" s="30"/>
+      <c r="FO31" s="30"/>
+      <c r="FP31" s="30"/>
+      <c r="FQ31" s="30"/>
+      <c r="FR31" s="30"/>
+      <c r="FS31" s="30"/>
+      <c r="FT31" s="30"/>
+      <c r="FU31" s="30"/>
+      <c r="FV31" s="30"/>
+      <c r="FW31" s="30"/>
+      <c r="FX31" s="30"/>
+      <c r="FY31" s="30"/>
+      <c r="FZ31" s="30"/>
+      <c r="GA31" s="30"/>
+      <c r="GB31" s="30"/>
+      <c r="GC31" s="30"/>
+      <c r="GD31" s="30"/>
+      <c r="GE31" s="30"/>
+      <c r="GF31" s="30"/>
+      <c r="GG31" s="30"/>
+      <c r="GH31" s="30"/>
+      <c r="GI31" s="30"/>
+      <c r="GJ31" s="30"/>
+      <c r="GK31" s="30"/>
+      <c r="GL31" s="30"/>
+      <c r="GM31" s="30"/>
+      <c r="GN31" s="30"/>
+      <c r="GO31" s="30"/>
+      <c r="GP31" s="30"/>
+      <c r="GQ31" s="30"/>
+      <c r="GR31" s="30"/>
+      <c r="GS31" s="30"/>
+      <c r="GT31" s="30"/>
+      <c r="GU31" s="30"/>
+      <c r="GV31" s="30"/>
+      <c r="GW31" s="30"/>
+      <c r="GX31" s="30"/>
+      <c r="GY31" s="30"/>
+      <c r="GZ31" s="30"/>
+      <c r="HA31" s="30"/>
+      <c r="HB31" s="30"/>
+      <c r="HC31" s="30"/>
+      <c r="HD31" s="30"/>
+      <c r="HE31" s="30"/>
+      <c r="HF31" s="30"/>
+      <c r="HG31" s="30"/>
+      <c r="HH31" s="30"/>
+      <c r="HI31" s="30"/>
+      <c r="HJ31" s="30"/>
+      <c r="HK31" s="30"/>
+      <c r="HL31" s="30"/>
+      <c r="HM31" s="30"/>
+      <c r="HN31" s="30"/>
+      <c r="HO31" s="30"/>
+      <c r="HP31" s="30"/>
+      <c r="HQ31" s="30"/>
+      <c r="HR31" s="30"/>
+      <c r="HS31" s="30"/>
+      <c r="HT31" s="30"/>
+      <c r="HU31" s="30"/>
+      <c r="HV31" s="30"/>
+      <c r="HW31" s="30"/>
+      <c r="HX31" s="30"/>
+      <c r="HY31" s="30"/>
+      <c r="HZ31" s="30"/>
+      <c r="IA31" s="30"/>
+      <c r="IB31" s="30"/>
+      <c r="IC31" s="30"/>
+      <c r="ID31" s="30"/>
+      <c r="IE31" s="30"/>
+      <c r="IF31" s="30"/>
+      <c r="IG31" s="30"/>
+      <c r="IH31" s="30"/>
+      <c r="II31" s="30"/>
+      <c r="IJ31" s="30"/>
+      <c r="IK31" s="30"/>
+      <c r="IL31" s="30"/>
+      <c r="IM31" s="30"/>
+      <c r="IN31" s="30"/>
+      <c r="IO31" s="30"/>
+      <c r="IP31" s="30"/>
+      <c r="IQ31" s="30"/>
+      <c r="IR31" s="30"/>
+      <c r="IS31" s="30"/>
+      <c r="IT31" s="30"/>
+      <c r="IU31" s="30"/>
+      <c r="IV31" s="30"/>
+      <c r="IW31" s="30"/>
+      <c r="IX31" s="30"/>
+      <c r="IY31" s="30"/>
+      <c r="IZ31" s="30"/>
+      <c r="JA31" s="30"/>
+      <c r="JB31" s="30"/>
+      <c r="JC31" s="30"/>
+      <c r="JD31" s="30"/>
+      <c r="JE31" s="30"/>
+      <c r="JF31" s="30"/>
+      <c r="JG31" s="30"/>
+      <c r="JH31" s="30"/>
+      <c r="JI31" s="30"/>
+      <c r="JJ31" s="30"/>
+      <c r="JK31" s="30"/>
+      <c r="JL31" s="30"/>
+      <c r="JM31" s="30"/>
+      <c r="JN31" s="30"/>
+      <c r="JO31" s="30"/>
+      <c r="JP31" s="30"/>
+      <c r="JQ31" s="30"/>
+      <c r="JR31" s="30"/>
+      <c r="JS31" s="30"/>
+      <c r="JT31" s="30"/>
+      <c r="JU31" s="30"/>
+      <c r="JV31" s="30"/>
+      <c r="JW31" s="30"/>
+      <c r="JX31" s="30"/>
+      <c r="JY31" s="30"/>
+      <c r="JZ31" s="30"/>
+      <c r="KA31" s="30"/>
+      <c r="KB31" s="30"/>
+      <c r="KC31" s="30"/>
+      <c r="KD31" s="30"/>
+      <c r="KE31" s="30"/>
+      <c r="KF31" s="30"/>
+      <c r="KG31" s="30"/>
+      <c r="KH31" s="30"/>
+      <c r="KI31" s="30"/>
+      <c r="KJ31" s="30"/>
+      <c r="KK31" s="30"/>
+      <c r="KL31" s="30"/>
+      <c r="KM31" s="30"/>
+      <c r="KN31" s="30"/>
+      <c r="KO31" s="30"/>
+      <c r="KP31" s="30"/>
+      <c r="KQ31" s="30"/>
+      <c r="KR31" s="30"/>
+      <c r="KS31" s="30"/>
+      <c r="KT31" s="30"/>
+      <c r="KU31" s="30"/>
+      <c r="KV31" s="30"/>
+      <c r="KW31" s="30"/>
+      <c r="KX31" s="30"/>
+      <c r="KY31" s="30"/>
+      <c r="KZ31" s="30"/>
+      <c r="LA31" s="30"/>
+      <c r="LB31" s="30"/>
+      <c r="LC31" s="30"/>
+      <c r="LD31" s="30"/>
+      <c r="LE31" s="30"/>
+      <c r="LF31" s="30"/>
+      <c r="LG31" s="30"/>
+      <c r="LH31" s="30"/>
+      <c r="LI31" s="30"/>
+      <c r="LJ31" s="30"/>
+      <c r="LK31" s="30"/>
+      <c r="LL31" s="30"/>
+      <c r="LM31" s="30"/>
+      <c r="LN31" s="30"/>
+      <c r="LO31" s="30"/>
+      <c r="LP31" s="30"/>
+      <c r="LQ31" s="30"/>
+      <c r="LR31" s="30"/>
+      <c r="LS31" s="30"/>
+      <c r="LT31" s="30"/>
+      <c r="LU31" s="30"/>
+      <c r="LV31" s="30"/>
+      <c r="LW31" s="30"/>
+      <c r="LX31" s="30"/>
+      <c r="LY31" s="30"/>
+      <c r="LZ31" s="30"/>
+      <c r="MA31" s="30"/>
+      <c r="MB31" s="30"/>
+      <c r="MC31" s="30"/>
+      <c r="MD31" s="30"/>
+      <c r="ME31" s="30"/>
+      <c r="MF31" s="30"/>
+      <c r="MG31" s="30"/>
+      <c r="MH31" s="30"/>
+      <c r="MI31" s="30"/>
+      <c r="MJ31" s="30"/>
+      <c r="MK31" s="30"/>
+      <c r="ML31" s="30"/>
+      <c r="MM31" s="30"/>
+      <c r="MN31" s="30"/>
+      <c r="MO31" s="30"/>
+      <c r="MP31" s="30"/>
+      <c r="MQ31" s="30"/>
+      <c r="MR31" s="30"/>
+      <c r="MS31" s="30"/>
+      <c r="MT31" s="30"/>
+      <c r="MU31" s="30"/>
+      <c r="MV31" s="30"/>
+      <c r="MW31" s="30"/>
+      <c r="MX31" s="30"/>
+      <c r="MY31" s="30"/>
+      <c r="MZ31" s="30"/>
+      <c r="NA31" s="30"/>
+      <c r="NB31" s="30"/>
+      <c r="NC31" s="30"/>
+      <c r="ND31" s="30"/>
+      <c r="NE31" s="30"/>
+      <c r="NF31" s="30"/>
+      <c r="NG31" s="30"/>
+      <c r="NH31" s="30"/>
+      <c r="NI31" s="30"/>
+      <c r="NJ31" s="30"/>
+      <c r="NK31" s="30"/>
+      <c r="NL31" s="30"/>
+      <c r="NM31" s="30"/>
+      <c r="NN31" s="30"/>
+      <c r="NO31" s="30"/>
+      <c r="NP31" s="30"/>
+      <c r="NQ31" s="30"/>
+      <c r="NR31" s="30"/>
+      <c r="NS31" s="30"/>
+      <c r="NT31" s="30"/>
+      <c r="NU31" s="30"/>
+      <c r="NV31" s="30"/>
+      <c r="NW31" s="30"/>
+      <c r="NX31" s="30"/>
+      <c r="NY31" s="30"/>
+      <c r="NZ31" s="30"/>
+      <c r="OA31" s="30"/>
+      <c r="OB31" s="30"/>
+      <c r="OC31" s="30"/>
+      <c r="OD31" s="30"/>
+      <c r="OE31" s="30"/>
+      <c r="OF31" s="30"/>
+      <c r="OG31" s="30"/>
+      <c r="OH31" s="30"/>
+      <c r="OI31" s="30"/>
+      <c r="OJ31" s="30"/>
+      <c r="OK31" s="30"/>
+      <c r="OL31" s="30"/>
+      <c r="OM31" s="30"/>
+      <c r="ON31" s="30"/>
+      <c r="OO31" s="30"/>
+      <c r="OP31" s="30"/>
+      <c r="OQ31" s="30"/>
+      <c r="OR31" s="30"/>
+      <c r="OS31" s="30"/>
+      <c r="OT31" s="30"/>
+      <c r="OU31" s="30"/>
+      <c r="OV31" s="30"/>
+      <c r="OW31" s="30"/>
+      <c r="OX31" s="30"/>
+      <c r="OY31" s="30"/>
+      <c r="OZ31" s="30"/>
+      <c r="PA31" s="30"/>
+      <c r="PB31" s="30"/>
+      <c r="PC31" s="30"/>
+      <c r="PD31" s="30"/>
+      <c r="PE31" s="30"/>
+      <c r="PF31" s="30"/>
+      <c r="PG31" s="30"/>
+      <c r="PH31" s="30"/>
+      <c r="PI31" s="30"/>
+      <c r="PJ31" s="30"/>
+      <c r="PK31" s="30"/>
+      <c r="PL31" s="30"/>
+      <c r="PM31" s="30"/>
+      <c r="PN31" s="30"/>
+      <c r="PO31" s="30"/>
+      <c r="PP31" s="30"/>
+      <c r="PQ31" s="30"/>
+      <c r="PR31" s="30"/>
+      <c r="PS31" s="30"/>
+      <c r="PT31" s="30"/>
+      <c r="PU31" s="30"/>
+      <c r="PV31" s="30"/>
+      <c r="PW31" s="30"/>
+      <c r="PX31" s="30"/>
+      <c r="PY31" s="30"/>
+      <c r="PZ31" s="30"/>
+      <c r="QA31" s="30"/>
+      <c r="QB31" s="30"/>
+      <c r="QC31" s="30"/>
+      <c r="QD31" s="30"/>
+      <c r="QE31" s="30"/>
+      <c r="QF31" s="30"/>
+      <c r="QG31" s="30"/>
+      <c r="QH31" s="30"/>
+      <c r="QI31" s="30"/>
+      <c r="QJ31" s="30"/>
+      <c r="QK31" s="30"/>
+      <c r="QL31" s="30"/>
+      <c r="QM31" s="30"/>
+      <c r="QN31" s="30"/>
+      <c r="QO31" s="30"/>
+      <c r="QP31" s="30"/>
+      <c r="QQ31" s="30"/>
+      <c r="QR31" s="30"/>
+      <c r="QS31" s="30"/>
+      <c r="QT31" s="30"/>
+      <c r="QU31" s="30"/>
+      <c r="QV31" s="30"/>
+      <c r="QW31" s="30"/>
+      <c r="QX31" s="30"/>
+      <c r="QY31" s="30"/>
+      <c r="QZ31" s="30"/>
+      <c r="RA31" s="30"/>
+      <c r="RB31" s="30"/>
+      <c r="RC31" s="30"/>
+      <c r="RD31" s="30"/>
+      <c r="RE31" s="30"/>
+      <c r="RF31" s="30"/>
+      <c r="RG31" s="30"/>
+      <c r="RH31" s="30"/>
+      <c r="RI31" s="30"/>
+      <c r="RJ31" s="30"/>
+      <c r="RK31" s="30"/>
+      <c r="RL31" s="30"/>
+      <c r="RM31" s="30"/>
+      <c r="RN31" s="30"/>
+      <c r="RO31" s="30"/>
+      <c r="RP31" s="30"/>
+      <c r="RQ31" s="30"/>
+      <c r="RR31" s="30"/>
+      <c r="RS31" s="30"/>
+      <c r="RT31" s="30"/>
+      <c r="RU31" s="30"/>
+      <c r="RV31" s="30"/>
+      <c r="RW31" s="30"/>
+      <c r="RX31" s="30"/>
+      <c r="RY31" s="30"/>
+      <c r="RZ31" s="30"/>
+      <c r="SA31" s="30"/>
+      <c r="SB31" s="30"/>
+      <c r="SC31" s="30"/>
+      <c r="SD31" s="30"/>
+      <c r="SE31" s="30"/>
+      <c r="SF31" s="30"/>
+      <c r="SG31" s="30"/>
+      <c r="SH31" s="30"/>
+      <c r="SI31" s="30"/>
+      <c r="SJ31" s="30"/>
+      <c r="SK31" s="30"/>
+      <c r="SL31" s="30"/>
+      <c r="SM31" s="30"/>
+      <c r="SN31" s="30"/>
+      <c r="SO31" s="30"/>
+      <c r="SP31" s="30"/>
+      <c r="SQ31" s="30"/>
+      <c r="SR31" s="30"/>
+      <c r="SS31" s="30"/>
+      <c r="ST31" s="30"/>
+      <c r="SU31" s="30"/>
+      <c r="SV31" s="30"/>
+      <c r="SW31" s="30"/>
+      <c r="SX31" s="30"/>
+      <c r="SY31" s="30"/>
+      <c r="SZ31" s="30"/>
+      <c r="TA31" s="30"/>
+      <c r="TB31" s="30"/>
+      <c r="TC31" s="30"/>
+      <c r="TD31" s="30"/>
+      <c r="TE31" s="30"/>
+      <c r="TF31" s="30"/>
+      <c r="TG31" s="30"/>
+      <c r="TH31" s="30"/>
+      <c r="TI31" s="30"/>
+      <c r="TJ31" s="30"/>
+      <c r="TK31" s="30"/>
+      <c r="TL31" s="30"/>
+      <c r="TM31" s="30"/>
+      <c r="TN31" s="30"/>
+      <c r="TO31" s="30"/>
+      <c r="TP31" s="30"/>
+      <c r="TQ31" s="30"/>
+      <c r="TR31" s="30"/>
+      <c r="TS31" s="30"/>
+      <c r="TT31" s="30"/>
+      <c r="TU31" s="30"/>
+      <c r="TV31" s="30"/>
+      <c r="TW31" s="30"/>
+      <c r="TX31" s="30"/>
+      <c r="TY31" s="30"/>
+      <c r="TZ31" s="30"/>
+      <c r="UA31" s="30"/>
+      <c r="UB31" s="30"/>
+      <c r="UC31" s="30"/>
+      <c r="UD31" s="30"/>
+      <c r="UE31" s="30"/>
+      <c r="UF31" s="30"/>
+      <c r="UG31" s="30"/>
+      <c r="UH31" s="30"/>
+      <c r="UI31" s="30"/>
+      <c r="UJ31" s="30"/>
+      <c r="UK31" s="30"/>
+      <c r="UL31" s="30"/>
+      <c r="UM31" s="30"/>
+      <c r="UN31" s="30"/>
+      <c r="UO31" s="30"/>
+      <c r="UP31" s="30"/>
+      <c r="UQ31" s="30"/>
+      <c r="UR31" s="30"/>
+      <c r="US31" s="30"/>
+      <c r="UT31" s="30"/>
+      <c r="UU31" s="30"/>
+      <c r="UV31" s="30"/>
+      <c r="UW31" s="30"/>
+      <c r="UX31" s="30"/>
+      <c r="UY31" s="30"/>
+      <c r="UZ31" s="30"/>
+      <c r="VA31" s="30"/>
+      <c r="VB31" s="30"/>
+      <c r="VC31" s="30"/>
+      <c r="VD31" s="30"/>
+      <c r="VE31" s="30"/>
+      <c r="VF31" s="30"/>
+      <c r="VG31" s="30"/>
+      <c r="VH31" s="30"/>
+      <c r="VI31" s="30"/>
+      <c r="VJ31" s="30"/>
+      <c r="VK31" s="30"/>
+      <c r="VL31" s="30"/>
+      <c r="VM31" s="30"/>
+      <c r="VN31" s="30"/>
+      <c r="VO31" s="30"/>
+      <c r="VP31" s="30"/>
+      <c r="VQ31" s="30"/>
+      <c r="VR31" s="30"/>
+      <c r="VS31" s="30"/>
+      <c r="VT31" s="30"/>
+      <c r="VU31" s="30"/>
+      <c r="VV31" s="30"/>
+      <c r="VW31" s="30"/>
+      <c r="VX31" s="30"/>
+      <c r="VY31" s="30"/>
+      <c r="VZ31" s="30"/>
+      <c r="WA31" s="30"/>
+      <c r="WB31" s="30"/>
+      <c r="WC31" s="30"/>
+      <c r="WD31" s="30"/>
+      <c r="WE31" s="30"/>
+      <c r="WF31" s="30"/>
+      <c r="WG31" s="30"/>
+      <c r="WH31" s="30"/>
+      <c r="WI31" s="30"/>
+      <c r="WJ31" s="30"/>
+      <c r="WK31" s="30"/>
+      <c r="WL31" s="30"/>
+      <c r="WM31" s="30"/>
+      <c r="WN31" s="30"/>
+      <c r="WO31" s="30"/>
+      <c r="WP31" s="30"/>
+      <c r="WQ31" s="30"/>
+      <c r="WR31" s="30"/>
+      <c r="WS31" s="30"/>
+      <c r="WT31" s="30"/>
+      <c r="WU31" s="30"/>
+      <c r="WV31" s="30"/>
+      <c r="WW31" s="30"/>
+      <c r="WX31" s="30"/>
+      <c r="WY31" s="30"/>
+      <c r="WZ31" s="30"/>
+      <c r="XA31" s="30"/>
+      <c r="XB31" s="30"/>
+      <c r="XC31" s="30"/>
+      <c r="XD31" s="30"/>
+      <c r="XE31" s="30"/>
+      <c r="XF31" s="30"/>
+      <c r="XG31" s="30"/>
+      <c r="XH31" s="30"/>
+      <c r="XI31" s="30"/>
+      <c r="XJ31" s="30"/>
+      <c r="XK31" s="30"/>
+      <c r="XL31" s="30"/>
+      <c r="XM31" s="30"/>
+      <c r="XN31" s="30"/>
+      <c r="XO31" s="30"/>
+      <c r="XP31" s="30"/>
+      <c r="XQ31" s="30"/>
+      <c r="XR31" s="30"/>
+      <c r="XS31" s="30"/>
+      <c r="XT31" s="30"/>
+      <c r="XU31" s="30"/>
+      <c r="XV31" s="30"/>
+      <c r="XW31" s="30"/>
+      <c r="XX31" s="30"/>
+      <c r="XY31" s="30"/>
+      <c r="XZ31" s="30"/>
+      <c r="YA31" s="30"/>
+      <c r="YB31" s="30"/>
+      <c r="YC31" s="30"/>
+      <c r="YD31" s="30"/>
+      <c r="YE31" s="30"/>
+      <c r="YF31" s="30"/>
+      <c r="YG31" s="30"/>
+      <c r="YH31" s="30"/>
+      <c r="YI31" s="30"/>
+      <c r="YJ31" s="30"/>
+      <c r="YK31" s="30"/>
+      <c r="YL31" s="30"/>
+      <c r="YM31" s="30"/>
+      <c r="YN31" s="30"/>
+      <c r="YO31" s="30"/>
+      <c r="YP31" s="30"/>
+      <c r="YQ31" s="30"/>
+      <c r="YR31" s="30"/>
+      <c r="YS31" s="30"/>
+      <c r="YT31" s="30"/>
+      <c r="YU31" s="30"/>
+      <c r="YV31" s="30"/>
+      <c r="YW31" s="30"/>
+      <c r="YX31" s="30"/>
+      <c r="YY31" s="30"/>
+      <c r="YZ31" s="30"/>
+      <c r="ZA31" s="30"/>
+      <c r="ZB31" s="30"/>
+      <c r="ZC31" s="30"/>
+      <c r="ZG31" s="30"/>
+      <c r="ZI31" s="30"/>
+      <c r="ZJ31" s="30"/>
+      <c r="ZK31" s="30"/>
+      <c r="ZL31" s="30"/>
+      <c r="ZM31" s="30"/>
+      <c r="ZN31" s="30"/>
+      <c r="ZO31" s="30"/>
+      <c r="ZP31" s="30"/>
+      <c r="ZQ31" s="30"/>
+      <c r="ZR31" s="30"/>
+      <c r="ZS31" s="30"/>
+      <c r="ZT31" s="30"/>
+      <c r="ZU31" s="30"/>
+      <c r="ZV31" s="30"/>
+      <c r="ZZ31" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="46">
     <mergeCell ref="A2:DE2"/>
     <mergeCell ref="A4:DE4"/>
     <mergeCell ref="A5:DE5"/>
@@ -21989,27 +22707,33 @@
     <mergeCell ref="BM12:BV12"/>
     <mergeCell ref="BW12:CM12"/>
     <mergeCell ref="CN12:DE12"/>
-    <mergeCell ref="A13:CM13"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:BA13"/>
+    <mergeCell ref="BB13:BL13"/>
+    <mergeCell ref="BM13:BV13"/>
+    <mergeCell ref="BW13:CM13"/>
     <mergeCell ref="CN13:DE13"/>
-    <mergeCell ref="A14:DE14"/>
-    <mergeCell ref="A16:DE16"/>
-    <mergeCell ref="A18:DE18"/>
-    <mergeCell ref="A21:AZ21"/>
-    <mergeCell ref="BD21:DE21"/>
-    <mergeCell ref="A23:AZ23"/>
-    <mergeCell ref="BD23:DE23"/>
+    <mergeCell ref="A14:CM14"/>
+    <mergeCell ref="CN14:DE14"/>
+    <mergeCell ref="A15:DE15"/>
+    <mergeCell ref="A17:DE17"/>
+    <mergeCell ref="A19:DE19"/>
+    <mergeCell ref="A22:AZ22"/>
+    <mergeCell ref="BD22:DE22"/>
     <mergeCell ref="A24:AZ24"/>
     <mergeCell ref="BD24:DE24"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="Q26:AZ26"/>
-    <mergeCell ref="BD26:BS26"/>
-    <mergeCell ref="BT26:DE26"/>
+    <mergeCell ref="A25:AZ25"/>
+    <mergeCell ref="BD25:DE25"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="Q27:AZ27"/>
     <mergeCell ref="BD27:BS27"/>
     <mergeCell ref="BT27:DE27"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="BZ29:CE29"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="Q28:AZ28"/>
+    <mergeCell ref="BD28:BS28"/>
+    <mergeCell ref="BT28:DE28"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="BZ30:CE30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -22018,7 +22742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c6c313f7-4d2c-460e-ab5e-8229a550f503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571a5505-8e8c-4efe-bd90-adcb4005d0c6}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/act_service/utils/output.xlsx
+++ b/act_service/utils/output.xlsx
@@ -790,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83190a36-e8a6-4ab8-91c7-ba694a89a28c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1907aa75-b334-4c99-ac70-d3769a3605fe}">
   <dimension ref="A1:ZZ31"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -22742,7 +22742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571a5505-8e8c-4efe-bd90-adcb4005d0c6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6d1c1722-5682-449f-a5c6-22956fb68244}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
